--- a/ZNF_breast.xlsx
+++ b/ZNF_breast.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allan\Documents\ZNF703\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E71D14A5-CBE9-4AF0-935B-9FFB52DB3AF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1C3509-B6DC-4232-BB99-833989EDA297}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZNF_breast" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ZNF_breast!$A$1:$AF$84</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="472">
   <si>
     <t>DepMap_ID</t>
   </si>
@@ -1424,12 +1424,27 @@
   </si>
   <si>
     <t>CVCL_5614</t>
+  </si>
+  <si>
+    <t>lumB</t>
+  </si>
+  <si>
+    <t>lumA</t>
+  </si>
+  <si>
+    <t>Basal</t>
+  </si>
+  <si>
+    <t>LumA/B</t>
+  </si>
+  <si>
+    <t>LumA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2263,11 +2278,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="AD62" sqref="AD62"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="AH41" sqref="AH41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2403,46 +2418,34 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>323</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>324</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
+        <v>325</v>
+      </c>
+      <c r="F2">
+        <v>906862</v>
       </c>
       <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>-2.9322500616974199</v>
-      </c>
-      <c r="K2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2">
-        <v>72.900000000000006</v>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>326</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P2" t="s">
         <v>41</v>
@@ -2453,14 +2456,14 @@
       <c r="R2" t="s">
         <v>43</v>
       </c>
-      <c r="S2">
-        <v>43</v>
+      <c r="S2" t="s">
+        <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U2" t="s">
-        <v>34</v>
+        <v>327</v>
+      </c>
+      <c r="U2">
+        <v>1863</v>
       </c>
       <c r="W2" t="s">
         <v>45</v>
@@ -2468,43 +2471,37 @@
       <c r="X2" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>48</v>
-      </c>
       <c r="AA2">
-        <v>0.79193883994905501</v>
+        <v>1.3054330206135301</v>
       </c>
       <c r="AB2">
-        <v>3</v>
-      </c>
-      <c r="AC2">
-        <v>2.1309308698264502</v>
+        <v>4</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>34</v>
       </c>
       <c r="AD2" t="s">
         <v>34</v>
       </c>
-      <c r="AE2">
-        <v>-2.96661310295127E-2</v>
-      </c>
-      <c r="AF2">
-        <v>1.64920813569936E-2</v>
+      <c r="AE2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>328</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>329</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>330</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -2513,7 +2510,7 @@
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>231</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
@@ -2522,10 +2519,10 @@
         <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
+        <v>331</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P3" t="s">
         <v>41</v>
@@ -2534,13 +2531,13 @@
         <v>42</v>
       </c>
       <c r="R3" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="S3">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="T3" t="s">
-        <v>69</v>
+        <v>332</v>
       </c>
       <c r="U3" t="s">
         <v>34</v>
@@ -2549,22 +2546,16 @@
         <v>45</v>
       </c>
       <c r="X3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AA3">
-        <v>2.99505315656703</v>
+        <v>1.7616303724017599</v>
       </c>
       <c r="AB3">
         <v>7</v>
       </c>
-      <c r="AC3">
-        <v>8.0090447873824893</v>
+      <c r="AC3" t="s">
+        <v>34</v>
       </c>
       <c r="AD3" t="s">
         <v>34</v>
@@ -2578,19 +2569,19 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>333</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>334</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>335</v>
       </c>
       <c r="F4">
-        <v>905957</v>
+        <v>1330941</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
@@ -2598,29 +2589,20 @@
       <c r="H4" t="s">
         <v>36</v>
       </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>-4.5366536039043703</v>
-      </c>
-      <c r="K4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M4">
-        <v>70.900000000000006</v>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>104</v>
+        <v>336</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P4" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="Q4" t="s">
         <v>42</v>
@@ -2629,13 +2611,13 @@
         <v>43</v>
       </c>
       <c r="S4">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="T4" t="s">
-        <v>105</v>
+        <v>337</v>
       </c>
       <c r="U4">
-        <v>655</v>
+        <v>1989</v>
       </c>
       <c r="W4" t="s">
         <v>45</v>
@@ -2643,52 +2625,46 @@
       <c r="X4" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>106</v>
-      </c>
       <c r="AA4">
-        <v>1.32628036079275</v>
-      </c>
-      <c r="AB4">
-        <v>4</v>
-      </c>
-      <c r="AC4">
-        <v>5.0386995513055899</v>
+        <v>2.4188985703652799</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>34</v>
       </c>
       <c r="AD4" t="s">
         <v>34</v>
       </c>
-      <c r="AE4">
-        <v>-5.0767609050616801E-2</v>
-      </c>
-      <c r="AF4">
-        <v>1.3576844394432901E-2</v>
+      <c r="AE4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>338</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>339</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5">
-        <v>749713</v>
+        <v>340</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>341</v>
       </c>
       <c r="I5" t="s">
         <v>34</v>
@@ -2697,7 +2673,7 @@
         <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>110</v>
+        <v>342</v>
       </c>
       <c r="O5" t="s">
         <v>45</v>
@@ -2709,37 +2685,34 @@
         <v>42</v>
       </c>
       <c r="R5" t="s">
-        <v>68</v>
-      </c>
-      <c r="S5">
-        <v>44</v>
-      </c>
-      <c r="T5" t="s">
-        <v>111</v>
-      </c>
-      <c r="U5">
-        <v>1264</v>
+        <v>43</v>
+      </c>
+      <c r="S5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" t="s">
+        <v>34</v>
       </c>
       <c r="W5" t="s">
         <v>45</v>
       </c>
       <c r="X5" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="Y5" t="s">
         <v>85</v>
       </c>
       <c r="Z5" t="s">
-        <v>86</v>
+        <v>343</v>
       </c>
       <c r="AA5">
-        <v>0.73343429837296903</v>
-      </c>
-      <c r="AB5">
-        <v>2</v>
-      </c>
-      <c r="AC5">
-        <v>4.5987224996766196</v>
+        <v>0.92090836321640102</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>34</v>
       </c>
       <c r="AD5" t="s">
         <v>34</v>
@@ -2753,43 +2726,34 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>344</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>345</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F6">
-        <v>906844</v>
+        <v>346</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
       </c>
       <c r="G6" t="s">
         <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>-1.6390147167998099</v>
-      </c>
-      <c r="K6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L6" t="s">
-        <v>74</v>
-      </c>
-      <c r="M6">
-        <v>44.1</v>
+        <v>341</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
       </c>
       <c r="N6" t="s">
-        <v>131</v>
+        <v>347</v>
       </c>
       <c r="O6" t="s">
         <v>132</v>
@@ -2801,250 +2765,220 @@
         <v>42</v>
       </c>
       <c r="R6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S6">
-        <v>62</v>
-      </c>
-      <c r="T6" t="s">
-        <v>133</v>
-      </c>
-      <c r="U6">
-        <v>302</v>
+        <v>68</v>
+      </c>
+      <c r="S6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" t="s">
+        <v>34</v>
       </c>
       <c r="W6" t="s">
         <v>45</v>
       </c>
       <c r="X6" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y6" t="s">
         <v>85</v>
       </c>
       <c r="Z6" t="s">
-        <v>134</v>
+        <v>343</v>
       </c>
       <c r="AA6">
-        <v>1.04683641635127</v>
-      </c>
-      <c r="AB6">
-        <v>2</v>
-      </c>
-      <c r="AC6">
-        <v>3.5134907455881201</v>
+        <v>0.84252731320895302</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>34</v>
       </c>
       <c r="AD6" t="s">
         <v>34</v>
       </c>
-      <c r="AE6">
-        <v>0.168819627738412</v>
-      </c>
-      <c r="AF6">
-        <v>2.5145300594147601E-3</v>
+      <c r="AE6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>365</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>366</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7">
-        <v>907045</v>
+        <v>367</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
       </c>
       <c r="G7" t="s">
         <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>-3.0940224863814998</v>
-      </c>
-      <c r="L7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7">
-        <v>51.3</v>
+        <v>341</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
       </c>
       <c r="N7" t="s">
-        <v>144</v>
+        <v>368</v>
       </c>
       <c r="O7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P7" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="Q7" t="s">
         <v>42</v>
       </c>
       <c r="R7" t="s">
-        <v>68</v>
-      </c>
-      <c r="S7">
-        <v>42</v>
-      </c>
-      <c r="T7" t="s">
-        <v>145</v>
-      </c>
-      <c r="U7">
-        <v>1551</v>
+        <v>43</v>
+      </c>
+      <c r="S7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U7" t="s">
+        <v>34</v>
       </c>
       <c r="W7" t="s">
         <v>45</v>
       </c>
       <c r="X7" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="Y7" t="s">
         <v>94</v>
       </c>
       <c r="Z7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AA7">
-        <v>0.93167708721203701</v>
-      </c>
-      <c r="AB7">
-        <v>2</v>
-      </c>
-      <c r="AC7">
-        <v>5.60644222813161</v>
+        <v>3.42834074120917</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>34</v>
       </c>
       <c r="AD7" t="s">
         <v>34</v>
       </c>
-      <c r="AE7">
-        <v>-0.15292744075471101</v>
-      </c>
-      <c r="AF7">
-        <v>6.3618117287295606E-2</v>
+      <c r="AE7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>374</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
+        <v>375</v>
       </c>
       <c r="D8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F8">
-        <v>1290905</v>
+        <v>376</v>
+      </c>
+      <c r="E8" t="s">
+        <v>375</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
       </c>
       <c r="G8" t="s">
         <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>-4.7118597291089603</v>
-      </c>
-      <c r="K8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" t="s">
-        <v>74</v>
-      </c>
-      <c r="M8">
-        <v>92.5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>165</v>
+        <v>377</v>
+      </c>
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
       </c>
       <c r="O8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P8" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q8" t="s">
         <v>42</v>
       </c>
       <c r="R8" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="S8">
-        <v>49</v>
-      </c>
-      <c r="T8" t="s">
-        <v>166</v>
-      </c>
-      <c r="U8">
-        <v>1567</v>
+        <v>47</v>
+      </c>
+      <c r="U8" t="s">
+        <v>34</v>
       </c>
       <c r="W8" t="s">
         <v>45</v>
       </c>
       <c r="X8" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="AA8">
-        <v>1.0097034141755199</v>
-      </c>
-      <c r="AB8">
-        <v>2</v>
-      </c>
-      <c r="AC8">
-        <v>5.2295879227406497</v>
+        <v>1.1004556272549399</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>34</v>
       </c>
       <c r="AD8" t="s">
         <v>34</v>
       </c>
-      <c r="AE8">
-        <v>-0.112337983817449</v>
-      </c>
-      <c r="AF8">
-        <v>3.8387574649680997E-2</v>
+      <c r="AE8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>378</v>
       </c>
       <c r="C9" t="s">
-        <v>178</v>
+        <v>379</v>
       </c>
       <c r="D9" t="s">
-        <v>179</v>
-      </c>
-      <c r="F9">
-        <v>909778</v>
+        <v>380</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
         <v>34</v>
@@ -3053,49 +2987,37 @@
         <v>34</v>
       </c>
       <c r="N9" t="s">
-        <v>180</v>
+        <v>381</v>
       </c>
       <c r="O9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P9" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="Q9" t="s">
         <v>42</v>
       </c>
-      <c r="R9" t="s">
-        <v>68</v>
-      </c>
-      <c r="S9">
-        <v>57</v>
+      <c r="S9" t="s">
+        <v>34</v>
       </c>
       <c r="T9" t="s">
-        <v>181</v>
-      </c>
-      <c r="U9">
-        <v>1090</v>
+        <v>382</v>
+      </c>
+      <c r="U9" t="s">
+        <v>34</v>
       </c>
       <c r="W9" t="s">
         <v>45</v>
       </c>
-      <c r="X9" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>48</v>
-      </c>
       <c r="AA9">
-        <v>0.61139929966906004</v>
-      </c>
-      <c r="AB9">
-        <v>2</v>
-      </c>
-      <c r="AC9">
-        <v>1.5753123306874399</v>
+        <v>0.94316031281618196</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>34</v>
       </c>
       <c r="AD9" t="s">
         <v>34</v>
@@ -3109,76 +3031,67 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>383</v>
       </c>
       <c r="C10" t="s">
-        <v>183</v>
+        <v>384</v>
       </c>
       <c r="D10" t="s">
-        <v>184</v>
+        <v>385</v>
       </c>
       <c r="F10">
-        <v>910910</v>
+        <v>908151</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>386</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>-0.22145012423309801</v>
+        <v>387</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
       </c>
       <c r="N10" t="s">
-        <v>185</v>
+        <v>388</v>
       </c>
       <c r="O10" t="s">
         <v>45</v>
-      </c>
-      <c r="P10" t="s">
-        <v>83</v>
       </c>
       <c r="Q10" t="s">
         <v>42</v>
       </c>
       <c r="R10" t="s">
-        <v>68</v>
-      </c>
-      <c r="S10">
         <v>43</v>
       </c>
+      <c r="S10" t="s">
+        <v>34</v>
+      </c>
       <c r="T10" t="s">
-        <v>186</v>
+        <v>389</v>
       </c>
       <c r="U10">
-        <v>1754</v>
+        <v>385</v>
       </c>
       <c r="W10" t="s">
         <v>45</v>
       </c>
       <c r="X10" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AA10">
-        <v>1.01057799741943</v>
-      </c>
-      <c r="AB10">
-        <v>3</v>
-      </c>
-      <c r="AC10">
-        <v>3.7333543406138299</v>
+        <v>1.1448229963349099</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>34</v>
       </c>
       <c r="AD10" t="s">
         <v>34</v>
@@ -3192,25 +3105,25 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>390</v>
       </c>
       <c r="C11" t="s">
-        <v>214</v>
+        <v>391</v>
       </c>
       <c r="D11" t="s">
-        <v>215</v>
+        <v>392</v>
       </c>
       <c r="F11">
-        <v>749715</v>
+        <v>909256</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>386</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>387</v>
       </c>
       <c r="I11" t="s">
         <v>34</v>
@@ -3219,49 +3132,43 @@
         <v>34</v>
       </c>
       <c r="N11" t="s">
-        <v>216</v>
+        <v>393</v>
       </c>
       <c r="O11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P11" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="Q11" t="s">
         <v>42</v>
       </c>
       <c r="R11" t="s">
-        <v>68</v>
-      </c>
-      <c r="S11">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="S11" t="s">
+        <v>34</v>
       </c>
       <c r="T11" t="s">
-        <v>217</v>
+        <v>394</v>
       </c>
       <c r="U11">
-        <v>351</v>
+        <v>1002</v>
       </c>
       <c r="W11" t="s">
         <v>45</v>
       </c>
       <c r="X11" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="AA11">
-        <v>0.848441478763718</v>
-      </c>
-      <c r="AB11">
-        <v>2</v>
-      </c>
-      <c r="AC11">
-        <v>0.23878685958711601</v>
+        <v>1.31749278739193</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>34</v>
       </c>
       <c r="AD11" t="s">
         <v>34</v>
@@ -3275,46 +3182,37 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>228</v>
+        <v>395</v>
       </c>
       <c r="C12" t="s">
-        <v>229</v>
+        <v>396</v>
       </c>
       <c r="D12" t="s">
-        <v>230</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
+        <v>397</v>
+      </c>
+      <c r="F12">
+        <v>1303911</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>386</v>
       </c>
       <c r="H12" t="s">
-        <v>231</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12">
-        <v>-4.5268334501296099</v>
-      </c>
-      <c r="K12" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" t="s">
-        <v>74</v>
-      </c>
-      <c r="M12">
-        <v>96.6</v>
+        <v>387</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
       </c>
       <c r="N12" t="s">
-        <v>232</v>
+        <v>398</v>
       </c>
       <c r="O12" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P12" t="s">
         <v>41</v>
@@ -3323,84 +3221,72 @@
         <v>42</v>
       </c>
       <c r="R12" t="s">
-        <v>43</v>
-      </c>
-      <c r="S12">
-        <v>35</v>
-      </c>
-      <c r="U12" t="s">
-        <v>34</v>
+        <v>68</v>
+      </c>
+      <c r="S12" t="s">
+        <v>34</v>
+      </c>
+      <c r="T12" t="s">
+        <v>399</v>
+      </c>
+      <c r="U12">
+        <v>317</v>
       </c>
       <c r="W12" t="s">
         <v>45</v>
       </c>
       <c r="X12" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="AA12">
-        <v>0.88659671206017499</v>
-      </c>
-      <c r="AB12">
-        <v>3</v>
-      </c>
-      <c r="AC12">
-        <v>0.27500704749986998</v>
+        <v>1.7712462574966401</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>34</v>
       </c>
       <c r="AD12" t="s">
         <v>34</v>
       </c>
-      <c r="AE12">
-        <v>-0.109676378617635</v>
-      </c>
-      <c r="AF12">
-        <v>2.86668904493745E-2</v>
+      <c r="AE12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>233</v>
+        <v>406</v>
       </c>
       <c r="C13" t="s">
-        <v>234</v>
+        <v>407</v>
       </c>
       <c r="D13" t="s">
-        <v>235</v>
-      </c>
-      <c r="F13">
-        <v>1290906</v>
+        <v>408</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
       </c>
       <c r="G13" t="s">
         <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
-      <c r="J13">
-        <v>-2.9969431050545698</v>
-      </c>
-      <c r="K13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L13" t="s">
-        <v>74</v>
-      </c>
-      <c r="M13">
-        <v>83.2</v>
+        <v>341</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
       </c>
       <c r="N13" t="s">
-        <v>236</v>
+        <v>409</v>
       </c>
       <c r="O13" t="s">
         <v>45</v>
@@ -3412,69 +3298,66 @@
         <v>42</v>
       </c>
       <c r="R13" t="s">
-        <v>68</v>
-      </c>
-      <c r="S13">
-        <v>82</v>
-      </c>
-      <c r="T13" t="s">
-        <v>237</v>
-      </c>
-      <c r="U13">
-        <v>1552</v>
+        <v>43</v>
+      </c>
+      <c r="S13" t="s">
+        <v>34</v>
+      </c>
+      <c r="U13" t="s">
+        <v>34</v>
       </c>
       <c r="W13" t="s">
         <v>45</v>
       </c>
       <c r="X13" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="Y13" t="s">
         <v>47</v>
       </c>
       <c r="Z13" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA13">
-        <v>1.0329667593199201</v>
-      </c>
-      <c r="AB13">
-        <v>3</v>
-      </c>
-      <c r="AC13">
-        <v>0.65992455840237796</v>
+        <v>86</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>34</v>
       </c>
       <c r="AD13" t="s">
         <v>34</v>
       </c>
-      <c r="AE13">
-        <v>4.9969656966961103E-2</v>
-      </c>
-      <c r="AF13">
-        <v>5.1484451766430801E-3</v>
+      <c r="AE13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>238</v>
+        <v>410</v>
       </c>
       <c r="C14" t="s">
-        <v>239</v>
+        <v>411</v>
       </c>
       <c r="D14" t="s">
-        <v>240</v>
-      </c>
-      <c r="F14">
-        <v>749716</v>
+        <v>412</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>36</v>
+        <v>341</v>
       </c>
       <c r="I14" t="s">
         <v>34</v>
@@ -3483,49 +3366,46 @@
         <v>34</v>
       </c>
       <c r="N14" t="s">
-        <v>241</v>
+        <v>413</v>
       </c>
       <c r="O14" t="s">
         <v>45</v>
       </c>
       <c r="P14" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="Q14" t="s">
         <v>42</v>
       </c>
       <c r="R14" t="s">
-        <v>68</v>
-      </c>
-      <c r="S14">
-        <v>38</v>
-      </c>
-      <c r="T14" t="s">
-        <v>242</v>
-      </c>
-      <c r="U14">
-        <v>352</v>
+        <v>91</v>
+      </c>
+      <c r="S14" t="s">
+        <v>34</v>
+      </c>
+      <c r="U14" t="s">
+        <v>34</v>
       </c>
       <c r="W14" t="s">
         <v>45</v>
       </c>
       <c r="X14" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="Y14" t="s">
         <v>47</v>
       </c>
       <c r="Z14" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA14">
-        <v>0.57875440802995404</v>
-      </c>
-      <c r="AB14">
-        <v>1</v>
-      </c>
-      <c r="AC14">
-        <v>4.1651079851445401</v>
+        <v>343</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>34</v>
       </c>
       <c r="AD14" t="s">
         <v>34</v>
@@ -3539,19 +3419,19 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>243</v>
+        <v>414</v>
       </c>
       <c r="C15" t="s">
-        <v>244</v>
+        <v>415</v>
       </c>
       <c r="D15" t="s">
-        <v>245</v>
-      </c>
-      <c r="F15">
-        <v>908120</v>
+        <v>416</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -3566,10 +3446,10 @@
         <v>34</v>
       </c>
       <c r="N15" t="s">
-        <v>246</v>
+        <v>417</v>
       </c>
       <c r="O15" t="s">
-        <v>40</v>
+        <v>418</v>
       </c>
       <c r="P15" t="s">
         <v>41</v>
@@ -3581,13 +3461,10 @@
         <v>68</v>
       </c>
       <c r="S15">
-        <v>56</v>
-      </c>
-      <c r="T15" t="s">
-        <v>247</v>
-      </c>
-      <c r="U15">
-        <v>50</v>
+        <v>67</v>
+      </c>
+      <c r="U15" t="s">
+        <v>34</v>
       </c>
       <c r="W15" t="s">
         <v>45</v>
@@ -3596,19 +3473,16 @@
         <v>70</v>
       </c>
       <c r="Y15" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA15">
-        <v>0.89755797634963996</v>
-      </c>
-      <c r="AB15">
-        <v>2</v>
-      </c>
-      <c r="AC15">
-        <v>5.3943769449570604</v>
+        <v>94</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>34</v>
       </c>
       <c r="AD15" t="s">
         <v>34</v>
@@ -3622,25 +3496,22 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>259</v>
+        <v>419</v>
       </c>
       <c r="C16" t="s">
-        <v>260</v>
+        <v>420</v>
       </c>
       <c r="D16" t="s">
-        <v>261</v>
-      </c>
-      <c r="F16">
-        <v>949093</v>
+        <v>421</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" t="s">
-        <v>36</v>
+        <v>386</v>
       </c>
       <c r="I16" t="s">
         <v>34</v>
@@ -3649,49 +3520,34 @@
         <v>34</v>
       </c>
       <c r="N16" t="s">
-        <v>262</v>
+        <v>422</v>
       </c>
       <c r="O16" t="s">
         <v>45</v>
-      </c>
-      <c r="P16" t="s">
-        <v>83</v>
       </c>
       <c r="Q16" t="s">
         <v>42</v>
       </c>
       <c r="R16" t="s">
-        <v>68</v>
-      </c>
-      <c r="S16">
-        <v>23</v>
-      </c>
-      <c r="T16" t="s">
-        <v>263</v>
-      </c>
-      <c r="U16">
-        <v>1231</v>
+        <v>386</v>
+      </c>
+      <c r="S16" t="s">
+        <v>34</v>
+      </c>
+      <c r="U16" t="s">
+        <v>34</v>
       </c>
       <c r="W16" t="s">
         <v>45</v>
       </c>
-      <c r="X16" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA16">
-        <v>2.9853160403404799</v>
-      </c>
-      <c r="AB16">
-        <v>7</v>
-      </c>
-      <c r="AC16">
-        <v>7.9905011113632503</v>
+      <c r="AA16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>34</v>
       </c>
       <c r="AD16" t="s">
         <v>34</v>
@@ -3703,27 +3559,24 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>264</v>
+        <v>423</v>
       </c>
       <c r="C17" t="s">
-        <v>265</v>
+        <v>424</v>
       </c>
       <c r="D17" t="s">
-        <v>266</v>
-      </c>
-      <c r="F17">
-        <v>909907</v>
+        <v>425</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" t="s">
-        <v>36</v>
+        <v>386</v>
       </c>
       <c r="I17" t="s">
         <v>34</v>
@@ -3732,10 +3585,10 @@
         <v>34</v>
       </c>
       <c r="N17" t="s">
-        <v>267</v>
+        <v>426</v>
       </c>
       <c r="O17" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="P17" t="s">
         <v>41</v>
@@ -3743,88 +3596,61 @@
       <c r="Q17" t="s">
         <v>42</v>
       </c>
-      <c r="R17" t="s">
-        <v>68</v>
-      </c>
-      <c r="S17">
-        <v>47</v>
-      </c>
-      <c r="T17" t="s">
-        <v>268</v>
-      </c>
-      <c r="U17">
+      <c r="S17" t="s">
+        <v>34</v>
+      </c>
+      <c r="U17" t="s">
+        <v>34</v>
+      </c>
+      <c r="W17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s">
+        <v>427</v>
+      </c>
+      <c r="C18" t="s">
+        <v>428</v>
+      </c>
+      <c r="D18" t="s">
         <v>429</v>
       </c>
-      <c r="W17" t="s">
-        <v>45</v>
-      </c>
-      <c r="X17" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA17">
-        <v>0.57784886749541498</v>
-      </c>
-      <c r="AB17">
-        <v>1</v>
-      </c>
-      <c r="AC17">
-        <v>3.75381844317354</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>46</v>
-      </c>
-      <c r="B18" t="s">
-        <v>290</v>
-      </c>
-      <c r="C18" t="s">
-        <v>291</v>
-      </c>
-      <c r="D18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F18">
-        <v>924240</v>
+      <c r="F18" t="s">
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18">
-        <v>3</v>
-      </c>
-      <c r="J18">
-        <v>-3.7175629928656799</v>
-      </c>
-      <c r="K18" t="s">
-        <v>37</v>
-      </c>
-      <c r="L18" t="s">
-        <v>293</v>
-      </c>
-      <c r="M18">
-        <v>92</v>
+        <v>386</v>
+      </c>
+      <c r="I18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" t="s">
+        <v>34</v>
       </c>
       <c r="N18" t="s">
-        <v>294</v>
+        <v>430</v>
       </c>
       <c r="O18" t="s">
         <v>40</v>
@@ -3835,70 +3661,52 @@
       <c r="Q18" t="s">
         <v>42</v>
       </c>
-      <c r="R18" t="s">
-        <v>43</v>
-      </c>
-      <c r="S18">
-        <v>38</v>
-      </c>
-      <c r="T18" t="s">
-        <v>295</v>
-      </c>
-      <c r="U18">
-        <v>344</v>
+      <c r="S18" t="s">
+        <v>34</v>
+      </c>
+      <c r="U18" t="s">
+        <v>34</v>
       </c>
       <c r="W18" t="s">
         <v>45</v>
       </c>
-      <c r="X18" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA18">
-        <v>0.72454611455812401</v>
-      </c>
-      <c r="AB18">
-        <v>1</v>
-      </c>
-      <c r="AC18">
-        <v>3.68144926531496</v>
+      <c r="AA18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>34</v>
       </c>
       <c r="AD18" t="s">
         <v>34</v>
       </c>
-      <c r="AE18">
-        <v>9.59963337096605E-2</v>
-      </c>
-      <c r="AF18">
-        <v>2.5395695066008001E-3</v>
+      <c r="AE18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>296</v>
+        <v>431</v>
       </c>
       <c r="C19" t="s">
-        <v>297</v>
+        <v>432</v>
       </c>
       <c r="D19" t="s">
-        <v>298</v>
-      </c>
-      <c r="F19">
-        <v>924106</v>
+        <v>433</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" t="s">
-        <v>60</v>
+        <v>386</v>
       </c>
       <c r="I19" t="s">
         <v>34</v>
@@ -3907,49 +3715,31 @@
         <v>34</v>
       </c>
       <c r="N19" t="s">
-        <v>299</v>
+        <v>434</v>
       </c>
       <c r="O19" t="s">
-        <v>40</v>
-      </c>
-      <c r="P19" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q19" t="s">
         <v>42</v>
       </c>
-      <c r="R19" t="s">
-        <v>68</v>
-      </c>
-      <c r="S19">
-        <v>58</v>
-      </c>
-      <c r="T19" t="s">
-        <v>300</v>
-      </c>
-      <c r="U19">
-        <v>1610</v>
+      <c r="S19" t="s">
+        <v>34</v>
+      </c>
+      <c r="U19" t="s">
+        <v>34</v>
       </c>
       <c r="W19" t="s">
         <v>45</v>
       </c>
-      <c r="X19" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA19">
-        <v>1.0144559924332801</v>
-      </c>
-      <c r="AB19">
-        <v>2</v>
-      </c>
-      <c r="AC19">
-        <v>2.6276068381296498</v>
+      <c r="AA19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>34</v>
       </c>
       <c r="AD19" t="s">
         <v>34</v>
@@ -3961,119 +3751,86 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>301</v>
+        <v>435</v>
       </c>
       <c r="C20" t="s">
-        <v>302</v>
+        <v>436</v>
       </c>
       <c r="D20" t="s">
-        <v>303</v>
-      </c>
-      <c r="F20">
-        <v>908122</v>
+        <v>437</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20">
-        <v>3</v>
-      </c>
-      <c r="J20">
-        <v>-3.8791821642706501</v>
-      </c>
-      <c r="K20" t="s">
-        <v>37</v>
-      </c>
-      <c r="L20" t="s">
-        <v>74</v>
-      </c>
-      <c r="M20">
-        <v>82</v>
+        <v>386</v>
+      </c>
+      <c r="I20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" t="s">
+        <v>34</v>
       </c>
       <c r="N20" t="s">
-        <v>304</v>
+        <v>438</v>
       </c>
       <c r="O20" t="s">
-        <v>305</v>
-      </c>
-      <c r="P20" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q20" t="s">
         <v>42</v>
       </c>
-      <c r="R20" t="s">
-        <v>43</v>
-      </c>
-      <c r="S20">
-        <v>48</v>
-      </c>
-      <c r="T20" t="s">
-        <v>306</v>
-      </c>
-      <c r="U20">
-        <v>101</v>
+      <c r="S20" t="s">
+        <v>34</v>
+      </c>
+      <c r="U20" t="s">
+        <v>34</v>
       </c>
       <c r="W20" t="s">
         <v>45</v>
       </c>
-      <c r="X20" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA20">
-        <v>0.97332031951824105</v>
-      </c>
-      <c r="AB20">
-        <v>2</v>
-      </c>
-      <c r="AC20">
-        <v>3.9467308601403102</v>
+      <c r="AA20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>34</v>
       </c>
       <c r="AD20" t="s">
         <v>34</v>
       </c>
-      <c r="AE20">
-        <v>8.9628265803687102E-2</v>
-      </c>
-      <c r="AF20">
-        <v>2.9685424462979901E-3</v>
+      <c r="AE20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>307</v>
+        <v>439</v>
       </c>
       <c r="C21" t="s">
-        <v>308</v>
+        <v>440</v>
       </c>
       <c r="D21" t="s">
-        <v>309</v>
-      </c>
-      <c r="F21">
-        <v>946359</v>
+        <v>441</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" t="s">
-        <v>36</v>
+        <v>386</v>
       </c>
       <c r="I21" t="s">
         <v>34</v>
@@ -4082,49 +3839,34 @@
         <v>34</v>
       </c>
       <c r="N21" t="s">
-        <v>310</v>
+        <v>442</v>
       </c>
       <c r="O21" t="s">
         <v>45</v>
       </c>
       <c r="P21" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="Q21" t="s">
         <v>42</v>
       </c>
-      <c r="R21" t="s">
-        <v>68</v>
-      </c>
-      <c r="S21">
-        <v>60</v>
-      </c>
-      <c r="T21" t="s">
-        <v>311</v>
-      </c>
-      <c r="U21">
-        <v>412</v>
+      <c r="S21" t="s">
+        <v>34</v>
+      </c>
+      <c r="U21" t="s">
+        <v>34</v>
       </c>
       <c r="W21" t="s">
         <v>45</v>
       </c>
-      <c r="X21" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA21">
-        <v>0.84779210947362005</v>
-      </c>
-      <c r="AB21">
-        <v>2</v>
-      </c>
-      <c r="AC21">
-        <v>4.6380738371807197</v>
+      <c r="AA21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>34</v>
       </c>
       <c r="AD21" t="s">
         <v>34</v>
@@ -4136,27 +3878,24 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>312</v>
+        <v>443</v>
       </c>
       <c r="C22" t="s">
-        <v>313</v>
+        <v>444</v>
       </c>
       <c r="D22" t="s">
-        <v>314</v>
-      </c>
-      <c r="F22">
-        <v>907046</v>
+        <v>445</v>
+      </c>
+      <c r="F22" t="s">
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" t="s">
-        <v>36</v>
+        <v>386</v>
       </c>
       <c r="I22" t="s">
         <v>34</v>
@@ -4165,49 +3904,34 @@
         <v>34</v>
       </c>
       <c r="N22" t="s">
-        <v>315</v>
+        <v>446</v>
       </c>
       <c r="O22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P22" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="Q22" t="s">
         <v>42</v>
       </c>
-      <c r="R22" t="s">
-        <v>43</v>
-      </c>
-      <c r="S22">
-        <v>70</v>
-      </c>
-      <c r="T22" t="s">
-        <v>316</v>
-      </c>
-      <c r="U22">
-        <v>2127</v>
+      <c r="S22" t="s">
+        <v>34</v>
+      </c>
+      <c r="U22" t="s">
+        <v>34</v>
       </c>
       <c r="W22" t="s">
         <v>45</v>
       </c>
-      <c r="X22" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA22">
-        <v>1.41556777257836</v>
-      </c>
-      <c r="AB22">
-        <v>5</v>
-      </c>
-      <c r="AC22">
-        <v>0.82374936030827295</v>
+      <c r="AA22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>34</v>
       </c>
       <c r="AD22" t="s">
         <v>34</v>
@@ -4219,27 +3943,24 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="C23" t="s">
-        <v>318</v>
+        <v>448</v>
       </c>
       <c r="D23" t="s">
-        <v>319</v>
-      </c>
-      <c r="F23">
-        <v>908121</v>
+        <v>449</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" t="s">
-        <v>36</v>
+        <v>386</v>
       </c>
       <c r="I23" t="s">
         <v>34</v>
@@ -4248,49 +3969,31 @@
         <v>34</v>
       </c>
       <c r="N23" t="s">
-        <v>320</v>
+        <v>450</v>
       </c>
       <c r="O23" t="s">
-        <v>321</v>
-      </c>
-      <c r="P23" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q23" t="s">
         <v>42</v>
       </c>
-      <c r="R23" t="s">
-        <v>43</v>
-      </c>
-      <c r="S23">
-        <v>40</v>
-      </c>
-      <c r="T23" t="s">
-        <v>322</v>
-      </c>
-      <c r="U23">
-        <v>880</v>
+      <c r="S23" t="s">
+        <v>34</v>
+      </c>
+      <c r="U23" t="s">
+        <v>34</v>
       </c>
       <c r="W23" t="s">
         <v>45</v>
       </c>
-      <c r="X23" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA23">
-        <v>1.2255667715017899</v>
-      </c>
-      <c r="AB23">
-        <v>4</v>
-      </c>
-      <c r="AC23">
-        <v>5.5229345609434599</v>
+      <c r="AA23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>34</v>
       </c>
       <c r="AD23" t="s">
         <v>34</v>
@@ -4302,24 +4005,24 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>323</v>
+        <v>451</v>
       </c>
       <c r="C24" t="s">
-        <v>324</v>
+        <v>452</v>
       </c>
       <c r="D24" t="s">
-        <v>325</v>
-      </c>
-      <c r="F24">
-        <v>906862</v>
+        <v>453</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>386</v>
       </c>
       <c r="I24" t="s">
         <v>34</v>
@@ -4328,40 +4031,28 @@
         <v>34</v>
       </c>
       <c r="N24" t="s">
-        <v>326</v>
+        <v>454</v>
       </c>
       <c r="O24" t="s">
-        <v>76</v>
-      </c>
-      <c r="P24" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q24" t="s">
         <v>42</v>
       </c>
-      <c r="R24" t="s">
-        <v>43</v>
-      </c>
       <c r="S24" t="s">
         <v>34</v>
       </c>
-      <c r="T24" t="s">
-        <v>327</v>
-      </c>
-      <c r="U24">
-        <v>1863</v>
+      <c r="U24" t="s">
+        <v>34</v>
       </c>
       <c r="W24" t="s">
         <v>45</v>
       </c>
-      <c r="X24" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA24">
-        <v>1.3054330206135301</v>
-      </c>
-      <c r="AB24">
-        <v>4</v>
+      <c r="AA24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>34</v>
       </c>
       <c r="AC24" t="s">
         <v>34</v>
@@ -4376,27 +4067,24 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
-        <v>328</v>
+        <v>455</v>
       </c>
       <c r="C25" t="s">
-        <v>329</v>
+        <v>456</v>
       </c>
       <c r="D25" t="s">
-        <v>330</v>
+        <v>457</v>
       </c>
       <c r="F25" t="s">
         <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" t="s">
-        <v>231</v>
+        <v>386</v>
       </c>
       <c r="I25" t="s">
         <v>34</v>
@@ -4405,25 +4093,16 @@
         <v>34</v>
       </c>
       <c r="N25" t="s">
-        <v>331</v>
+        <v>458</v>
       </c>
       <c r="O25" t="s">
-        <v>76</v>
-      </c>
-      <c r="P25" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q25" t="s">
         <v>42</v>
       </c>
-      <c r="R25" t="s">
-        <v>43</v>
-      </c>
-      <c r="S25">
-        <v>63</v>
-      </c>
-      <c r="T25" t="s">
-        <v>332</v>
+      <c r="S25" t="s">
+        <v>34</v>
       </c>
       <c r="U25" t="s">
         <v>34</v>
@@ -4431,14 +4110,11 @@
       <c r="W25" t="s">
         <v>45</v>
       </c>
-      <c r="X25" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA25">
-        <v>1.7616303724017599</v>
-      </c>
-      <c r="AB25">
-        <v>7</v>
+      <c r="AA25" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>34</v>
       </c>
       <c r="AC25" t="s">
         <v>34</v>
@@ -4453,27 +4129,24 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>333</v>
+        <v>459</v>
       </c>
       <c r="C26" t="s">
-        <v>334</v>
+        <v>460</v>
       </c>
       <c r="D26" t="s">
-        <v>335</v>
-      </c>
-      <c r="F26">
-        <v>1330941</v>
+        <v>461</v>
+      </c>
+      <c r="F26" t="s">
+        <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" t="s">
-        <v>36</v>
+        <v>386</v>
       </c>
       <c r="I26" t="s">
         <v>34</v>
@@ -4482,37 +4155,25 @@
         <v>34</v>
       </c>
       <c r="N26" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="O26" t="s">
-        <v>40</v>
-      </c>
-      <c r="P26" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q26" t="s">
         <v>42</v>
       </c>
-      <c r="R26" t="s">
-        <v>43</v>
-      </c>
-      <c r="S26">
-        <v>43</v>
-      </c>
-      <c r="T26" t="s">
-        <v>337</v>
-      </c>
-      <c r="U26">
-        <v>1989</v>
+      <c r="S26" t="s">
+        <v>34</v>
+      </c>
+      <c r="U26" t="s">
+        <v>34</v>
       </c>
       <c r="W26" t="s">
         <v>45</v>
       </c>
-      <c r="X26" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA26">
-        <v>2.4188985703652799</v>
+      <c r="AA26" t="s">
+        <v>34</v>
       </c>
       <c r="AB26" t="s">
         <v>34</v>
@@ -4530,27 +4191,24 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>338</v>
+        <v>463</v>
       </c>
       <c r="C27" t="s">
-        <v>339</v>
+        <v>464</v>
       </c>
       <c r="D27" t="s">
-        <v>340</v>
+        <v>465</v>
       </c>
       <c r="F27" t="s">
         <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="I27" t="s">
         <v>34</v>
@@ -4559,20 +4217,17 @@
         <v>34</v>
       </c>
       <c r="N27" t="s">
-        <v>342</v>
+        <v>466</v>
       </c>
       <c r="O27" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="P27" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="Q27" t="s">
         <v>42</v>
       </c>
-      <c r="R27" t="s">
-        <v>43</v>
-      </c>
       <c r="S27" t="s">
         <v>34</v>
       </c>
@@ -4582,17 +4237,8 @@
       <c r="W27" t="s">
         <v>45</v>
       </c>
-      <c r="X27" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>343</v>
-      </c>
-      <c r="AA27">
-        <v>0.92090836321640102</v>
+      <c r="AA27" t="s">
+        <v>34</v>
       </c>
       <c r="AB27" t="s">
         <v>34</v>
@@ -4610,18 +4256,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>344</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>345</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>346</v>
+        <v>66</v>
       </c>
       <c r="F28" t="s">
         <v>34</v>
@@ -4630,7 +4276,7 @@
         <v>35</v>
       </c>
       <c r="H28" t="s">
-        <v>341</v>
+        <v>36</v>
       </c>
       <c r="I28" t="s">
         <v>34</v>
@@ -4639,10 +4285,10 @@
         <v>34</v>
       </c>
       <c r="N28" t="s">
-        <v>347</v>
+        <v>67</v>
       </c>
       <c r="O28" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="P28" t="s">
         <v>41</v>
@@ -4653,8 +4299,11 @@
       <c r="R28" t="s">
         <v>68</v>
       </c>
-      <c r="S28" t="s">
-        <v>34</v>
+      <c r="S28">
+        <v>47</v>
+      </c>
+      <c r="T28" t="s">
+        <v>69</v>
       </c>
       <c r="U28" t="s">
         <v>34</v>
@@ -4666,19 +4315,19 @@
         <v>70</v>
       </c>
       <c r="Y28" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="Z28" t="s">
-        <v>343</v>
+        <v>56</v>
       </c>
       <c r="AA28">
-        <v>0.84252731320895302</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>34</v>
+        <v>2.99505315656703</v>
+      </c>
+      <c r="AB28">
+        <v>7</v>
+      </c>
+      <c r="AC28">
+        <v>8.0090447873824893</v>
       </c>
       <c r="AD28" t="s">
         <v>34</v>
@@ -4689,46 +4338,43 @@
       <c r="AF28" t="s">
         <v>34</v>
       </c>
+      <c r="AG28" t="s">
+        <v>467</v>
+      </c>
+      <c r="AH28">
+        <v>2</v>
+      </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>348</v>
+        <v>259</v>
       </c>
       <c r="C29" t="s">
-        <v>349</v>
+        <v>260</v>
       </c>
       <c r="D29" t="s">
-        <v>350</v>
-      </c>
-      <c r="F29" t="s">
-        <v>34</v>
+        <v>261</v>
+      </c>
+      <c r="F29">
+        <v>949093</v>
       </c>
       <c r="G29" t="s">
         <v>35</v>
       </c>
       <c r="H29" t="s">
-        <v>341</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>-2.8727900282338599</v>
-      </c>
-      <c r="K29" t="s">
-        <v>37</v>
-      </c>
-      <c r="L29" t="s">
-        <v>351</v>
-      </c>
-      <c r="M29">
-        <v>62.3</v>
+        <v>36</v>
+      </c>
+      <c r="I29" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" t="s">
+        <v>34</v>
       </c>
       <c r="N29" t="s">
-        <v>352</v>
+        <v>262</v>
       </c>
       <c r="O29" t="s">
         <v>45</v>
@@ -4742,11 +4388,14 @@
       <c r="R29" t="s">
         <v>68</v>
       </c>
-      <c r="S29" t="s">
-        <v>34</v>
-      </c>
-      <c r="U29" t="s">
-        <v>34</v>
+      <c r="S29">
+        <v>23</v>
+      </c>
+      <c r="T29" t="s">
+        <v>263</v>
+      </c>
+      <c r="U29">
+        <v>1231</v>
       </c>
       <c r="W29" t="s">
         <v>45</v>
@@ -4755,69 +4404,66 @@
         <v>70</v>
       </c>
       <c r="Y29" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="Z29" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="AA29">
-        <v>0.901616244878921</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>34</v>
+        <v>2.9853160403404799</v>
+      </c>
+      <c r="AB29">
+        <v>7</v>
       </c>
       <c r="AC29">
-        <v>0.99276843076892396</v>
+        <v>7.9905011113632503</v>
       </c>
       <c r="AD29" t="s">
         <v>34</v>
       </c>
-      <c r="AE29">
-        <v>-0.120706473733283</v>
-      </c>
-      <c r="AF29">
-        <v>2.9920267814385799E-2</v>
+      <c r="AE29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>468</v>
+      </c>
+      <c r="AH29">
+        <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>353</v>
+        <v>157</v>
       </c>
       <c r="C30" t="s">
-        <v>354</v>
+        <v>158</v>
       </c>
       <c r="D30" t="s">
-        <v>355</v>
-      </c>
-      <c r="F30" t="s">
-        <v>34</v>
+        <v>159</v>
+      </c>
+      <c r="F30">
+        <v>1303900</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>341</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>-4.0290670194752503</v>
-      </c>
-      <c r="K30" t="s">
-        <v>37</v>
-      </c>
-      <c r="L30" t="s">
-        <v>351</v>
-      </c>
-      <c r="M30">
-        <v>92.6</v>
+        <v>36</v>
+      </c>
+      <c r="I30" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30" t="s">
+        <v>34</v>
       </c>
       <c r="N30" t="s">
-        <v>356</v>
+        <v>160</v>
       </c>
       <c r="O30" t="s">
         <v>45</v>
@@ -4829,75 +4475,93 @@
         <v>42</v>
       </c>
       <c r="R30" t="s">
-        <v>43</v>
-      </c>
-      <c r="S30" t="s">
-        <v>34</v>
-      </c>
-      <c r="U30" t="s">
-        <v>34</v>
+        <v>68</v>
+      </c>
+      <c r="S30">
+        <v>32</v>
+      </c>
+      <c r="T30" t="s">
+        <v>161</v>
+      </c>
+      <c r="U30">
+        <v>653</v>
       </c>
       <c r="W30" t="s">
         <v>45</v>
       </c>
       <c r="X30" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y30" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="Z30" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="AA30">
-        <v>1.0137102212476099</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>34</v>
+        <v>2.9771858883289202</v>
+      </c>
+      <c r="AB30">
+        <v>7</v>
       </c>
       <c r="AC30">
-        <v>1.43829285157915</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE30">
-        <v>-0.13809810327713501</v>
-      </c>
-      <c r="AF30">
-        <v>3.7684802086369498E-2</v>
+        <v>7.2942531364445102</v>
+      </c>
+      <c r="AD30">
+        <v>3.6354554367332401</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>467</v>
+      </c>
+      <c r="AH30">
+        <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>357</v>
+        <v>253</v>
       </c>
       <c r="C31" t="s">
-        <v>358</v>
+        <v>254</v>
       </c>
       <c r="D31" t="s">
-        <v>359</v>
-      </c>
-      <c r="F31" t="s">
-        <v>34</v>
+        <v>255</v>
+      </c>
+      <c r="F31">
+        <v>946382</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>341</v>
+        <v>36</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31">
-        <v>-1.5036611697595601</v>
+        <v>-2.9132639587805902</v>
+      </c>
+      <c r="K31" t="s">
+        <v>37</v>
+      </c>
+      <c r="L31" t="s">
+        <v>256</v>
+      </c>
+      <c r="M31">
+        <v>93.5</v>
       </c>
       <c r="N31" t="s">
-        <v>360</v>
+        <v>257</v>
       </c>
       <c r="O31" t="s">
         <v>40</v>
@@ -4911,11 +4575,14 @@
       <c r="R31" t="s">
         <v>43</v>
       </c>
-      <c r="S31" t="s">
-        <v>34</v>
-      </c>
-      <c r="U31" t="s">
-        <v>34</v>
+      <c r="S31">
+        <v>51</v>
+      </c>
+      <c r="T31" t="s">
+        <v>258</v>
+      </c>
+      <c r="U31">
+        <v>363</v>
       </c>
       <c r="W31" t="s">
         <v>45</v>
@@ -4924,42 +4591,48 @@
         <v>46</v>
       </c>
       <c r="Y31" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="Z31" t="s">
         <v>56</v>
       </c>
       <c r="AA31">
-        <v>1.09412456919908</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>34</v>
+        <v>1.85691346019573</v>
+      </c>
+      <c r="AB31">
+        <v>5</v>
       </c>
       <c r="AC31">
-        <v>4.0303360783709596</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>34</v>
+        <v>6.24355484277846</v>
+      </c>
+      <c r="AD31">
+        <v>2.1939239987622798</v>
+      </c>
+      <c r="AE31">
+        <v>-0.30837531593258</v>
+      </c>
+      <c r="AF31">
+        <v>0.17658047161222501</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>467</v>
+      </c>
+      <c r="AH31">
+        <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="C32" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="D32" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="F32" t="s">
         <v>34</v>
@@ -4968,25 +4641,25 @@
         <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>341</v>
+        <v>60</v>
       </c>
       <c r="I32">
         <v>2</v>
       </c>
       <c r="J32">
-        <v>-3.6087374032716402</v>
+        <v>-4.43351112935472</v>
       </c>
       <c r="K32" t="s">
         <v>37</v>
       </c>
       <c r="L32" t="s">
-        <v>351</v>
+        <v>403</v>
       </c>
       <c r="M32">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="N32" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="O32" t="s">
         <v>40</v>
@@ -4998,11 +4671,14 @@
         <v>42</v>
       </c>
       <c r="R32" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="S32" t="s">
         <v>34</v>
       </c>
+      <c r="T32" t="s">
+        <v>405</v>
+      </c>
       <c r="U32" t="s">
         <v>34</v>
       </c>
@@ -5010,155 +4686,161 @@
         <v>45</v>
       </c>
       <c r="X32" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y32" t="s">
         <v>85</v>
       </c>
       <c r="Z32" t="s">
-        <v>343</v>
+        <v>56</v>
       </c>
       <c r="AA32">
-        <v>0.96082379075705504</v>
+        <v>3.27641400146761</v>
       </c>
       <c r="AB32" t="s">
         <v>34</v>
       </c>
       <c r="AC32">
-        <v>0.98550043030488499</v>
+        <v>6.1162399794693698</v>
       </c>
       <c r="AD32" t="s">
         <v>34</v>
       </c>
-      <c r="AE32">
-        <v>5.8709694457034702E-2</v>
-      </c>
-      <c r="AF32">
-        <v>4.2671633318046402E-3</v>
+      <c r="AE32" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>469</v>
+      </c>
+      <c r="AH32">
+        <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>365</v>
+        <v>141</v>
       </c>
       <c r="C33" t="s">
-        <v>366</v>
+        <v>142</v>
       </c>
       <c r="D33" t="s">
-        <v>367</v>
-      </c>
-      <c r="F33" t="s">
-        <v>34</v>
+        <v>143</v>
+      </c>
+      <c r="F33">
+        <v>907045</v>
       </c>
       <c r="G33" t="s">
         <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>341</v>
-      </c>
-      <c r="I33" t="s">
-        <v>34</v>
-      </c>
-      <c r="J33" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>-3.0940224863814998</v>
+      </c>
+      <c r="L33" t="s">
+        <v>74</v>
+      </c>
+      <c r="M33">
+        <v>51.3</v>
       </c>
       <c r="N33" t="s">
-        <v>368</v>
+        <v>144</v>
       </c>
       <c r="O33" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P33" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q33" t="s">
         <v>42</v>
       </c>
       <c r="R33" t="s">
-        <v>43</v>
-      </c>
-      <c r="S33" t="s">
-        <v>34</v>
-      </c>
-      <c r="U33" t="s">
-        <v>34</v>
+        <v>68</v>
+      </c>
+      <c r="S33">
+        <v>42</v>
+      </c>
+      <c r="T33" t="s">
+        <v>145</v>
+      </c>
+      <c r="U33">
+        <v>1551</v>
       </c>
       <c r="W33" t="s">
         <v>45</v>
       </c>
       <c r="X33" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y33" t="s">
         <v>94</v>
       </c>
       <c r="Z33" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="AA33">
-        <v>3.42834074120917</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>34</v>
+        <v>0.93167708721203701</v>
+      </c>
+      <c r="AB33">
+        <v>2</v>
+      </c>
+      <c r="AC33">
+        <v>5.60644222813161</v>
       </c>
       <c r="AD33" t="s">
         <v>34</v>
       </c>
-      <c r="AE33" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>34</v>
+      <c r="AE33">
+        <v>-0.15292744075471101</v>
+      </c>
+      <c r="AF33">
+        <v>6.3618117287295606E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>369</v>
+        <v>317</v>
       </c>
       <c r="C34" t="s">
-        <v>370</v>
+        <v>318</v>
       </c>
       <c r="D34" t="s">
-        <v>371</v>
-      </c>
-      <c r="F34" t="s">
-        <v>34</v>
+        <v>319</v>
+      </c>
+      <c r="F34">
+        <v>908121</v>
       </c>
       <c r="G34" t="s">
         <v>35</v>
       </c>
       <c r="H34" t="s">
-        <v>341</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>-2.3865598803027699</v>
-      </c>
-      <c r="K34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L34" t="s">
-        <v>372</v>
-      </c>
-      <c r="M34">
-        <v>85.4</v>
+        <v>36</v>
+      </c>
+      <c r="I34" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" t="s">
+        <v>34</v>
       </c>
       <c r="N34" t="s">
-        <v>373</v>
+        <v>320</v>
       </c>
       <c r="O34" t="s">
-        <v>40</v>
+        <v>321</v>
       </c>
       <c r="P34" t="s">
         <v>41</v>
@@ -5169,11 +4851,14 @@
       <c r="R34" t="s">
         <v>43</v>
       </c>
-      <c r="S34" t="s">
-        <v>34</v>
-      </c>
-      <c r="U34" t="s">
-        <v>34</v>
+      <c r="S34">
+        <v>40</v>
+      </c>
+      <c r="T34" t="s">
+        <v>322</v>
+      </c>
+      <c r="U34">
+        <v>880</v>
       </c>
       <c r="W34" t="s">
         <v>45</v>
@@ -5185,51 +4870,48 @@
         <v>94</v>
       </c>
       <c r="Z34" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="AA34">
-        <v>1.80364324971655</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>34</v>
+        <v>1.2255667715017899</v>
+      </c>
+      <c r="AB34">
+        <v>4</v>
       </c>
       <c r="AC34">
-        <v>1.9335726382610201</v>
+        <v>5.5229345609434599</v>
       </c>
       <c r="AD34" t="s">
         <v>34</v>
       </c>
-      <c r="AE34">
-        <v>-1.0452531325336001</v>
-      </c>
-      <c r="AF34">
-        <v>0.81310048020496395</v>
+      <c r="AE34" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>374</v>
+        <v>243</v>
       </c>
       <c r="C35" t="s">
-        <v>375</v>
+        <v>244</v>
       </c>
       <c r="D35" t="s">
-        <v>376</v>
-      </c>
-      <c r="E35" t="s">
-        <v>375</v>
-      </c>
-      <c r="F35" t="s">
-        <v>34</v>
+        <v>245</v>
+      </c>
+      <c r="F35">
+        <v>908120</v>
       </c>
       <c r="G35" t="s">
         <v>35</v>
       </c>
       <c r="H35" t="s">
-        <v>377</v>
+        <v>36</v>
       </c>
       <c r="I35" t="s">
         <v>34</v>
@@ -5237,11 +4919,14 @@
       <c r="J35" t="s">
         <v>34</v>
       </c>
+      <c r="N35" t="s">
+        <v>246</v>
+      </c>
       <c r="O35" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P35" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="Q35" t="s">
         <v>42</v>
@@ -5250,10 +4935,13 @@
         <v>68</v>
       </c>
       <c r="S35">
-        <v>47</v>
-      </c>
-      <c r="U35" t="s">
-        <v>34</v>
+        <v>56</v>
+      </c>
+      <c r="T35" t="s">
+        <v>247</v>
+      </c>
+      <c r="U35">
+        <v>50</v>
       </c>
       <c r="W35" t="s">
         <v>45</v>
@@ -5261,14 +4949,20 @@
       <c r="X35" t="s">
         <v>70</v>
       </c>
+      <c r="Y35" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>48</v>
+      </c>
       <c r="AA35">
-        <v>1.1004556272549399</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>34</v>
+        <v>0.89755797634963996</v>
+      </c>
+      <c r="AB35">
+        <v>2</v>
+      </c>
+      <c r="AC35">
+        <v>5.3943769449570604</v>
       </c>
       <c r="AD35" t="s">
         <v>34</v>
@@ -5280,18 +4974,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>378</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>379</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>380</v>
+        <v>59</v>
       </c>
       <c r="F36" t="s">
         <v>34</v>
@@ -5302,14 +4996,23 @@
       <c r="H36" t="s">
         <v>60</v>
       </c>
-      <c r="I36" t="s">
-        <v>34</v>
-      </c>
-      <c r="J36" t="s">
-        <v>34</v>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>-3.4146547554709699</v>
+      </c>
+      <c r="K36" t="s">
+        <v>37</v>
+      </c>
+      <c r="L36" t="s">
+        <v>61</v>
+      </c>
+      <c r="M36">
+        <v>69.599999999999994</v>
       </c>
       <c r="N36" t="s">
-        <v>381</v>
+        <v>62</v>
       </c>
       <c r="O36" t="s">
         <v>40</v>
@@ -5320,11 +5023,14 @@
       <c r="Q36" t="s">
         <v>42</v>
       </c>
-      <c r="S36" t="s">
-        <v>34</v>
+      <c r="R36" t="s">
+        <v>43</v>
+      </c>
+      <c r="S36">
+        <v>50</v>
       </c>
       <c r="T36" t="s">
-        <v>382</v>
+        <v>63</v>
       </c>
       <c r="U36" t="s">
         <v>34</v>
@@ -5332,58 +5038,79 @@
       <c r="W36" t="s">
         <v>45</v>
       </c>
+      <c r="X36" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>56</v>
+      </c>
       <c r="AA36">
-        <v>0.94316031281618196</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>34</v>
+        <v>0.710134390575483</v>
+      </c>
+      <c r="AB36">
+        <v>2</v>
+      </c>
+      <c r="AC36">
+        <v>5.2410774581750399</v>
+      </c>
+      <c r="AD36">
+        <v>1.0045916054242801</v>
+      </c>
+      <c r="AE36">
+        <v>-0.25886595118868</v>
+      </c>
+      <c r="AF36">
+        <v>0.133999269911526</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>383</v>
+        <v>162</v>
       </c>
       <c r="C37" t="s">
-        <v>384</v>
+        <v>163</v>
       </c>
       <c r="D37" t="s">
-        <v>385</v>
+        <v>164</v>
       </c>
       <c r="F37">
-        <v>908151</v>
+        <v>1290905</v>
       </c>
       <c r="G37" t="s">
-        <v>386</v>
+        <v>35</v>
       </c>
       <c r="H37" t="s">
-        <v>387</v>
-      </c>
-      <c r="I37" t="s">
-        <v>34</v>
-      </c>
-      <c r="J37" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>-4.7118597291089603</v>
+      </c>
+      <c r="K37" t="s">
+        <v>37</v>
+      </c>
+      <c r="L37" t="s">
+        <v>74</v>
+      </c>
+      <c r="M37">
+        <v>92.5</v>
       </c>
       <c r="N37" t="s">
-        <v>388</v>
+        <v>165</v>
       </c>
       <c r="O37" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="P37" t="s">
+        <v>41</v>
       </c>
       <c r="Q37" t="s">
         <v>42</v>
@@ -5391,14 +5118,14 @@
       <c r="R37" t="s">
         <v>43</v>
       </c>
-      <c r="S37" t="s">
-        <v>34</v>
+      <c r="S37">
+        <v>49</v>
       </c>
       <c r="T37" t="s">
-        <v>389</v>
+        <v>166</v>
       </c>
       <c r="U37">
-        <v>385</v>
+        <v>1567</v>
       </c>
       <c r="W37" t="s">
         <v>45</v>
@@ -5406,61 +5133,76 @@
       <c r="X37" t="s">
         <v>46</v>
       </c>
+      <c r="Y37" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>56</v>
+      </c>
       <c r="AA37">
-        <v>1.1448229963349099</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>34</v>
+        <v>1.0097034141755199</v>
+      </c>
+      <c r="AB37">
+        <v>2</v>
+      </c>
+      <c r="AC37">
+        <v>5.2295879227406497</v>
       </c>
       <c r="AD37" t="s">
         <v>34</v>
       </c>
-      <c r="AE37" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>34</v>
+      <c r="AE37">
+        <v>-0.112337983817449</v>
+      </c>
+      <c r="AF37">
+        <v>3.8387574649680997E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>390</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s">
-        <v>391</v>
+        <v>102</v>
       </c>
       <c r="D38" t="s">
-        <v>392</v>
+        <v>103</v>
       </c>
       <c r="F38">
-        <v>909256</v>
+        <v>905957</v>
       </c>
       <c r="G38" t="s">
-        <v>386</v>
+        <v>35</v>
       </c>
       <c r="H38" t="s">
-        <v>387</v>
-      </c>
-      <c r="I38" t="s">
-        <v>34</v>
-      </c>
-      <c r="J38" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>-4.5366536039043703</v>
+      </c>
+      <c r="K38" t="s">
+        <v>37</v>
+      </c>
+      <c r="L38" t="s">
+        <v>61</v>
+      </c>
+      <c r="M38">
+        <v>70.900000000000006</v>
       </c>
       <c r="N38" t="s">
-        <v>393</v>
+        <v>104</v>
       </c>
       <c r="O38" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P38" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q38" t="s">
         <v>42</v>
@@ -5468,14 +5210,14 @@
       <c r="R38" t="s">
         <v>43</v>
       </c>
-      <c r="S38" t="s">
-        <v>34</v>
+      <c r="S38">
+        <v>74</v>
       </c>
       <c r="T38" t="s">
-        <v>394</v>
+        <v>105</v>
       </c>
       <c r="U38">
-        <v>1002</v>
+        <v>655</v>
       </c>
       <c r="W38" t="s">
         <v>45</v>
@@ -5483,61 +5225,76 @@
       <c r="X38" t="s">
         <v>46</v>
       </c>
+      <c r="Y38" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>106</v>
+      </c>
       <c r="AA38">
-        <v>1.31749278739193</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>34</v>
+        <v>1.32628036079275</v>
+      </c>
+      <c r="AB38">
+        <v>4</v>
+      </c>
+      <c r="AC38">
+        <v>5.0386995513055899</v>
       </c>
       <c r="AD38" t="s">
         <v>34</v>
       </c>
-      <c r="AE38" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>34</v>
+      <c r="AE38">
+        <v>-5.0767609050616801E-2</v>
+      </c>
+      <c r="AF38">
+        <v>1.3576844394432901E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>395</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>396</v>
+        <v>136</v>
       </c>
       <c r="D39" t="s">
-        <v>397</v>
+        <v>137</v>
       </c>
       <c r="F39">
-        <v>1303911</v>
+        <v>749717</v>
       </c>
       <c r="G39" t="s">
-        <v>386</v>
+        <v>35</v>
       </c>
       <c r="H39" t="s">
-        <v>387</v>
-      </c>
-      <c r="I39" t="s">
-        <v>34</v>
-      </c>
-      <c r="J39" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>-3.2670762872193899</v>
+      </c>
+      <c r="K39" t="s">
+        <v>37</v>
+      </c>
+      <c r="L39" t="s">
+        <v>138</v>
+      </c>
+      <c r="M39">
+        <v>60.8</v>
       </c>
       <c r="N39" t="s">
-        <v>398</v>
+        <v>139</v>
       </c>
       <c r="O39" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="P39" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q39" t="s">
         <v>42</v>
@@ -5545,14 +5302,14 @@
       <c r="R39" t="s">
         <v>68</v>
       </c>
-      <c r="S39" t="s">
-        <v>34</v>
+      <c r="S39">
+        <v>50</v>
       </c>
       <c r="T39" t="s">
-        <v>399</v>
+        <v>140</v>
       </c>
       <c r="U39">
-        <v>317</v>
+        <v>1318</v>
       </c>
       <c r="W39" t="s">
         <v>45</v>
@@ -5560,40 +5317,46 @@
       <c r="X39" t="s">
         <v>70</v>
       </c>
+      <c r="Y39" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>86</v>
+      </c>
       <c r="AA39">
-        <v>1.7712462574966401</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>34</v>
+        <v>1.4545103853328001</v>
+      </c>
+      <c r="AB39">
+        <v>3</v>
+      </c>
+      <c r="AC39">
+        <v>4.9845893503624596</v>
+      </c>
+      <c r="AD39">
+        <v>-0.62249145411864704</v>
+      </c>
+      <c r="AE39">
+        <v>-0.161288917960142</v>
+      </c>
+      <c r="AF39">
+        <v>3.4110519233220997E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>400</v>
+        <v>223</v>
       </c>
       <c r="C40" t="s">
-        <v>401</v>
+        <v>224</v>
       </c>
       <c r="D40" t="s">
-        <v>402</v>
-      </c>
-      <c r="F40" t="s">
-        <v>34</v>
+        <v>225</v>
+      </c>
+      <c r="F40">
+        <v>1298157</v>
       </c>
       <c r="G40" t="s">
         <v>35</v>
@@ -5602,22 +5365,19 @@
         <v>60</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J40">
-        <v>-4.43351112935472</v>
-      </c>
-      <c r="K40" t="s">
-        <v>37</v>
+        <v>-6.4614182921720502</v>
       </c>
       <c r="L40" t="s">
-        <v>403</v>
+        <v>74</v>
       </c>
       <c r="M40">
-        <v>82</v>
+        <v>95.5</v>
       </c>
       <c r="N40" t="s">
-        <v>404</v>
+        <v>226</v>
       </c>
       <c r="O40" t="s">
         <v>40</v>
@@ -5631,14 +5391,14 @@
       <c r="R40" t="s">
         <v>68</v>
       </c>
-      <c r="S40" t="s">
-        <v>34</v>
+      <c r="S40">
+        <v>62</v>
       </c>
       <c r="T40" t="s">
-        <v>405</v>
-      </c>
-      <c r="U40" t="s">
-        <v>34</v>
+        <v>227</v>
+      </c>
+      <c r="U40">
+        <v>479</v>
       </c>
       <c r="W40" t="s">
         <v>45</v>
@@ -5647,51 +5407,51 @@
         <v>70</v>
       </c>
       <c r="Y40" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="Z40" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="AA40">
-        <v>3.27641400146761</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>34</v>
+        <v>1.8075855759411801</v>
+      </c>
+      <c r="AB40">
+        <v>6</v>
       </c>
       <c r="AC40">
-        <v>6.1162399794693698</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>34</v>
+        <v>4.9777378492428204</v>
+      </c>
+      <c r="AD40">
+        <v>0.95457000926020696</v>
+      </c>
+      <c r="AE40">
+        <v>-0.14533836224590499</v>
+      </c>
+      <c r="AF40">
+        <v>5.3135415653419199E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>406</v>
+        <v>307</v>
       </c>
       <c r="C41" t="s">
-        <v>407</v>
+        <v>308</v>
       </c>
       <c r="D41" t="s">
-        <v>408</v>
-      </c>
-      <c r="F41" t="s">
-        <v>34</v>
+        <v>309</v>
+      </c>
+      <c r="F41">
+        <v>946359</v>
       </c>
       <c r="G41" t="s">
         <v>35</v>
       </c>
       <c r="H41" t="s">
-        <v>341</v>
+        <v>36</v>
       </c>
       <c r="I41" t="s">
         <v>34</v>
@@ -5700,7 +5460,7 @@
         <v>34</v>
       </c>
       <c r="N41" t="s">
-        <v>409</v>
+        <v>310</v>
       </c>
       <c r="O41" t="s">
         <v>45</v>
@@ -5712,34 +5472,37 @@
         <v>42</v>
       </c>
       <c r="R41" t="s">
-        <v>43</v>
-      </c>
-      <c r="S41" t="s">
-        <v>34</v>
-      </c>
-      <c r="U41" t="s">
-        <v>34</v>
+        <v>68</v>
+      </c>
+      <c r="S41">
+        <v>60</v>
+      </c>
+      <c r="T41" t="s">
+        <v>311</v>
+      </c>
+      <c r="U41">
+        <v>412</v>
       </c>
       <c r="W41" t="s">
         <v>45</v>
       </c>
       <c r="X41" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y41" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="Z41" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>34</v>
+        <v>48</v>
+      </c>
+      <c r="AA41">
+        <v>0.84779210947362005</v>
+      </c>
+      <c r="AB41">
+        <v>2</v>
+      </c>
+      <c r="AC41">
+        <v>4.6380738371807197</v>
       </c>
       <c r="AD41" t="s">
         <v>34</v>
@@ -5750,28 +5513,31 @@
       <c r="AF41" t="s">
         <v>34</v>
       </c>
+      <c r="AG41" t="s">
+        <v>471</v>
+      </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>410</v>
+        <v>107</v>
       </c>
       <c r="C42" t="s">
-        <v>411</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s">
-        <v>412</v>
-      </c>
-      <c r="F42" t="s">
-        <v>34</v>
+        <v>109</v>
+      </c>
+      <c r="F42">
+        <v>749713</v>
       </c>
       <c r="G42" t="s">
         <v>35</v>
       </c>
       <c r="H42" t="s">
-        <v>341</v>
+        <v>36</v>
       </c>
       <c r="I42" t="s">
         <v>34</v>
@@ -5780,46 +5546,49 @@
         <v>34</v>
       </c>
       <c r="N42" t="s">
-        <v>413</v>
+        <v>110</v>
       </c>
       <c r="O42" t="s">
         <v>45</v>
       </c>
       <c r="P42" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q42" t="s">
         <v>42</v>
       </c>
       <c r="R42" t="s">
-        <v>91</v>
-      </c>
-      <c r="S42" t="s">
-        <v>34</v>
-      </c>
-      <c r="U42" t="s">
-        <v>34</v>
+        <v>68</v>
+      </c>
+      <c r="S42">
+        <v>44</v>
+      </c>
+      <c r="T42" t="s">
+        <v>111</v>
+      </c>
+      <c r="U42">
+        <v>1264</v>
       </c>
       <c r="W42" t="s">
         <v>45</v>
       </c>
       <c r="X42" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="Y42" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="Z42" t="s">
-        <v>343</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>34</v>
+        <v>86</v>
+      </c>
+      <c r="AA42">
+        <v>0.73343429837296903</v>
+      </c>
+      <c r="AB42">
+        <v>2</v>
+      </c>
+      <c r="AC42">
+        <v>4.5987224996766196</v>
       </c>
       <c r="AD42" t="s">
         <v>34</v>
@@ -5831,21 +5600,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>414</v>
+        <v>95</v>
       </c>
       <c r="C43" t="s">
-        <v>415</v>
+        <v>96</v>
       </c>
       <c r="D43" t="s">
-        <v>416</v>
-      </c>
-      <c r="F43" t="s">
-        <v>34</v>
+        <v>97</v>
+      </c>
+      <c r="F43">
+        <v>905945</v>
       </c>
       <c r="G43" t="s">
         <v>35</v>
@@ -5853,17 +5622,26 @@
       <c r="H43" t="s">
         <v>36</v>
       </c>
-      <c r="I43" t="s">
-        <v>34</v>
-      </c>
-      <c r="J43" t="s">
-        <v>34</v>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>-4.8207713619167496</v>
+      </c>
+      <c r="K43" t="s">
+        <v>37</v>
+      </c>
+      <c r="L43" t="s">
+        <v>98</v>
+      </c>
+      <c r="M43">
+        <v>68</v>
       </c>
       <c r="N43" t="s">
-        <v>417</v>
+        <v>99</v>
       </c>
       <c r="O43" t="s">
-        <v>418</v>
+        <v>40</v>
       </c>
       <c r="P43" t="s">
         <v>41</v>
@@ -5875,10 +5653,13 @@
         <v>68</v>
       </c>
       <c r="S43">
-        <v>67</v>
-      </c>
-      <c r="U43" t="s">
-        <v>34</v>
+        <v>54</v>
+      </c>
+      <c r="T43" t="s">
+        <v>100</v>
+      </c>
+      <c r="U43">
+        <v>1286</v>
       </c>
       <c r="W43" t="s">
         <v>45</v>
@@ -5887,19 +5668,22 @@
         <v>70</v>
       </c>
       <c r="Y43" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>34</v>
+        <v>55</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA43">
+        <v>1.2192638277202501</v>
+      </c>
+      <c r="AB43">
+        <v>4</v>
+      </c>
+      <c r="AC43">
+        <v>4.5166455577809597</v>
+      </c>
+      <c r="AD43">
+        <v>0.63722340272617695</v>
       </c>
       <c r="AE43" t="s">
         <v>34</v>
@@ -5908,98 +5692,143 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>419</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>420</v>
+        <v>50</v>
       </c>
       <c r="D44" t="s">
-        <v>421</v>
-      </c>
-      <c r="F44" t="s">
-        <v>34</v>
+        <v>51</v>
+      </c>
+      <c r="F44">
+        <v>905946</v>
       </c>
       <c r="G44" t="s">
-        <v>386</v>
-      </c>
-      <c r="I44" t="s">
-        <v>34</v>
-      </c>
-      <c r="J44" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="H44" t="s">
+        <v>36</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>-2.4936754521313902</v>
+      </c>
+      <c r="K44" t="s">
+        <v>37</v>
+      </c>
+      <c r="L44" t="s">
+        <v>52</v>
+      </c>
+      <c r="M44">
+        <v>65</v>
       </c>
       <c r="N44" t="s">
-        <v>422</v>
+        <v>53</v>
       </c>
       <c r="O44" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="P44" t="s">
+        <v>41</v>
       </c>
       <c r="Q44" t="s">
         <v>42</v>
       </c>
       <c r="R44" t="s">
-        <v>386</v>
-      </c>
-      <c r="S44" t="s">
-        <v>34</v>
-      </c>
-      <c r="U44" t="s">
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="S44">
+        <v>69</v>
+      </c>
+      <c r="T44" t="s">
+        <v>54</v>
+      </c>
+      <c r="U44">
+        <v>588</v>
       </c>
       <c r="W44" t="s">
         <v>45</v>
       </c>
-      <c r="AA44" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>34</v>
+      <c r="X44" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA44">
+        <v>0.63335422359053795</v>
+      </c>
+      <c r="AB44">
+        <v>1</v>
+      </c>
+      <c r="AC44">
+        <v>4.3448284969974402</v>
+      </c>
+      <c r="AD44">
+        <v>2.5183452716931698</v>
+      </c>
+      <c r="AE44">
+        <v>-0.199605470158742</v>
+      </c>
+      <c r="AF44">
+        <v>6.4619314347952997E-2</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>470</v>
+      </c>
+      <c r="AH44">
+        <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>423</v>
+        <v>248</v>
       </c>
       <c r="C45" t="s">
-        <v>424</v>
+        <v>249</v>
       </c>
       <c r="D45" t="s">
-        <v>425</v>
-      </c>
-      <c r="F45" t="s">
-        <v>34</v>
+        <v>250</v>
+      </c>
+      <c r="F45">
+        <v>905960</v>
       </c>
       <c r="G45" t="s">
-        <v>386</v>
-      </c>
-      <c r="I45" t="s">
-        <v>34</v>
-      </c>
-      <c r="J45" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="H45" t="s">
+        <v>36</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>-3.8395206423862498</v>
+      </c>
+      <c r="K45" t="s">
+        <v>37</v>
+      </c>
+      <c r="L45" t="s">
+        <v>74</v>
+      </c>
+      <c r="M45">
+        <v>91</v>
       </c>
       <c r="N45" t="s">
-        <v>426</v>
+        <v>251</v>
       </c>
       <c r="O45" t="s">
         <v>40</v>
@@ -6010,64 +5839,91 @@
       <c r="Q45" t="s">
         <v>42</v>
       </c>
-      <c r="S45" t="s">
-        <v>34</v>
-      </c>
-      <c r="U45" t="s">
-        <v>34</v>
+      <c r="R45" t="s">
+        <v>43</v>
+      </c>
+      <c r="S45">
+        <v>51</v>
+      </c>
+      <c r="T45" t="s">
+        <v>252</v>
+      </c>
+      <c r="U45">
+        <v>1013</v>
       </c>
       <c r="W45" t="s">
         <v>45</v>
       </c>
-      <c r="AA45" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD45" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF45" t="s">
-        <v>34</v>
+      <c r="X45" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA45">
+        <v>0.84743175382551705</v>
+      </c>
+      <c r="AB45">
+        <v>2</v>
+      </c>
+      <c r="AC45">
+        <v>4.3305584000308004</v>
+      </c>
+      <c r="AD45">
+        <v>0.95604482482986597</v>
+      </c>
+      <c r="AE45">
+        <v>-9.8332622205870801E-2</v>
+      </c>
+      <c r="AF45">
+        <v>2.0266117880408701E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46" t="s">
+        <v>36</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>-4.2902295939906603</v>
+      </c>
+      <c r="K46" t="s">
+        <v>37</v>
+      </c>
+      <c r="L46" t="s">
         <v>74</v>
       </c>
-      <c r="B46" t="s">
-        <v>427</v>
-      </c>
-      <c r="C46" t="s">
-        <v>428</v>
-      </c>
-      <c r="D46" t="s">
-        <v>429</v>
-      </c>
-      <c r="F46" t="s">
-        <v>34</v>
-      </c>
-      <c r="G46" t="s">
-        <v>386</v>
-      </c>
-      <c r="I46" t="s">
-        <v>34</v>
-      </c>
-      <c r="J46" t="s">
-        <v>34</v>
+      <c r="M46">
+        <v>79.099999999999994</v>
       </c>
       <c r="N46" t="s">
-        <v>430</v>
+        <v>75</v>
       </c>
       <c r="O46" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P46" t="s">
         <v>41</v>
@@ -6075,8 +5931,14 @@
       <c r="Q46" t="s">
         <v>42</v>
       </c>
-      <c r="S46" t="s">
-        <v>34</v>
+      <c r="R46" t="s">
+        <v>68</v>
+      </c>
+      <c r="S46">
+        <v>63</v>
+      </c>
+      <c r="T46" t="s">
+        <v>77</v>
       </c>
       <c r="U46" t="s">
         <v>34</v>
@@ -6084,105 +5946,150 @@
       <c r="W46" t="s">
         <v>45</v>
       </c>
-      <c r="AA46" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF46" t="s">
-        <v>34</v>
+      <c r="X46" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA46">
+        <v>1.8775885633481899</v>
+      </c>
+      <c r="AB46">
+        <v>7</v>
+      </c>
+      <c r="AC46">
+        <v>4.2697812382743798</v>
+      </c>
+      <c r="AD46">
+        <v>1.8252386303530499</v>
+      </c>
+      <c r="AE46">
+        <v>-0.207072593859355</v>
+      </c>
+      <c r="AF46">
+        <v>8.58697115140864E-2</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>470</v>
+      </c>
+      <c r="AH46">
+        <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>431</v>
+        <v>152</v>
       </c>
       <c r="C47" t="s">
-        <v>432</v>
+        <v>153</v>
       </c>
       <c r="D47" t="s">
-        <v>433</v>
-      </c>
-      <c r="F47" t="s">
-        <v>34</v>
+        <v>154</v>
+      </c>
+      <c r="F47">
+        <v>906851</v>
       </c>
       <c r="G47" t="s">
-        <v>386</v>
-      </c>
-      <c r="I47" t="s">
-        <v>34</v>
-      </c>
-      <c r="J47" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="H47" t="s">
+        <v>60</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>-2.8790897518819301</v>
+      </c>
+      <c r="L47" t="s">
+        <v>74</v>
+      </c>
+      <c r="M47">
+        <v>68</v>
       </c>
       <c r="N47" t="s">
-        <v>434</v>
+        <v>155</v>
       </c>
       <c r="O47" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="P47" t="s">
+        <v>41</v>
       </c>
       <c r="Q47" t="s">
         <v>42</v>
       </c>
-      <c r="S47" t="s">
-        <v>34</v>
-      </c>
-      <c r="U47" t="s">
-        <v>34</v>
+      <c r="R47" t="s">
+        <v>68</v>
+      </c>
+      <c r="S47">
+        <v>50</v>
+      </c>
+      <c r="T47" t="s">
+        <v>156</v>
+      </c>
+      <c r="U47">
+        <v>1786</v>
       </c>
       <c r="W47" t="s">
         <v>45</v>
       </c>
-      <c r="AA47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF47" t="s">
-        <v>34</v>
+      <c r="X47" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA47">
+        <v>0.41051529390013902</v>
+      </c>
+      <c r="AB47">
+        <v>1</v>
+      </c>
+      <c r="AC47">
+        <v>4.2272789944683202</v>
+      </c>
+      <c r="AD47">
+        <v>0.53662759891332101</v>
+      </c>
+      <c r="AE47">
+        <v>0.16743687782545699</v>
+      </c>
+      <c r="AF47">
+        <v>6.5931706529449505E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B48" t="s">
-        <v>435</v>
+        <v>238</v>
       </c>
       <c r="C48" t="s">
-        <v>436</v>
+        <v>239</v>
       </c>
       <c r="D48" t="s">
-        <v>437</v>
-      </c>
-      <c r="F48" t="s">
-        <v>34</v>
+        <v>240</v>
+      </c>
+      <c r="F48">
+        <v>749716</v>
       </c>
       <c r="G48" t="s">
-        <v>386</v>
+        <v>35</v>
+      </c>
+      <c r="H48" t="s">
+        <v>36</v>
       </c>
       <c r="I48" t="s">
         <v>34</v>
@@ -6191,31 +6098,49 @@
         <v>34</v>
       </c>
       <c r="N48" t="s">
-        <v>438</v>
+        <v>241</v>
       </c>
       <c r="O48" t="s">
         <v>45</v>
+      </c>
+      <c r="P48" t="s">
+        <v>83</v>
       </c>
       <c r="Q48" t="s">
         <v>42</v>
       </c>
-      <c r="S48" t="s">
-        <v>34</v>
-      </c>
-      <c r="U48" t="s">
-        <v>34</v>
+      <c r="R48" t="s">
+        <v>68</v>
+      </c>
+      <c r="S48">
+        <v>38</v>
+      </c>
+      <c r="T48" t="s">
+        <v>242</v>
+      </c>
+      <c r="U48">
+        <v>352</v>
       </c>
       <c r="W48" t="s">
         <v>45</v>
       </c>
-      <c r="AA48" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB48" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC48" t="s">
-        <v>34</v>
+      <c r="X48" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA48">
+        <v>0.57875440802995404</v>
+      </c>
+      <c r="AB48">
+        <v>1</v>
+      </c>
+      <c r="AC48">
+        <v>4.1651079851445401</v>
       </c>
       <c r="AD48" t="s">
         <v>34</v>
@@ -6229,22 +6154,25 @@
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>439</v>
+        <v>172</v>
       </c>
       <c r="C49" t="s">
-        <v>440</v>
+        <v>173</v>
       </c>
       <c r="D49" t="s">
-        <v>441</v>
-      </c>
-      <c r="F49" t="s">
-        <v>34</v>
+        <v>174</v>
+      </c>
+      <c r="F49">
+        <v>906801</v>
       </c>
       <c r="G49" t="s">
-        <v>386</v>
+        <v>35</v>
+      </c>
+      <c r="H49" t="s">
+        <v>36</v>
       </c>
       <c r="I49" t="s">
         <v>34</v>
@@ -6253,37 +6181,52 @@
         <v>34</v>
       </c>
       <c r="N49" t="s">
-        <v>442</v>
+        <v>175</v>
       </c>
       <c r="O49" t="s">
         <v>45</v>
       </c>
       <c r="P49" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q49" t="s">
         <v>42</v>
       </c>
-      <c r="S49" t="s">
-        <v>34</v>
-      </c>
-      <c r="U49" t="s">
-        <v>34</v>
+      <c r="R49" t="s">
+        <v>68</v>
+      </c>
+      <c r="S49">
+        <v>74</v>
+      </c>
+      <c r="T49" t="s">
+        <v>176</v>
+      </c>
+      <c r="U49">
+        <v>2264</v>
       </c>
       <c r="W49" t="s">
         <v>45</v>
       </c>
-      <c r="AA49" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>34</v>
+      <c r="X49" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA49">
+        <v>0.95396958958175404</v>
+      </c>
+      <c r="AB49">
+        <v>2</v>
+      </c>
+      <c r="AC49">
+        <v>4.10517519226548</v>
+      </c>
+      <c r="AD49">
+        <v>0.46770595039518598</v>
       </c>
       <c r="AE49" t="s">
         <v>34</v>
@@ -6294,31 +6237,34 @@
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>443</v>
+        <v>357</v>
       </c>
       <c r="C50" t="s">
-        <v>444</v>
+        <v>358</v>
       </c>
       <c r="D50" t="s">
-        <v>445</v>
+        <v>359</v>
       </c>
       <c r="F50" t="s">
         <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>386</v>
-      </c>
-      <c r="I50" t="s">
-        <v>34</v>
-      </c>
-      <c r="J50" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="H50" t="s">
+        <v>341</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>-1.5036611697595601</v>
       </c>
       <c r="N50" t="s">
-        <v>446</v>
+        <v>360</v>
       </c>
       <c r="O50" t="s">
         <v>40</v>
@@ -6329,6 +6275,9 @@
       <c r="Q50" t="s">
         <v>42</v>
       </c>
+      <c r="R50" t="s">
+        <v>43</v>
+      </c>
       <c r="S50" t="s">
         <v>34</v>
       </c>
@@ -6338,14 +6287,23 @@
       <c r="W50" t="s">
         <v>45</v>
       </c>
-      <c r="AA50" t="s">
-        <v>34</v>
+      <c r="X50" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA50">
+        <v>1.09412456919908</v>
       </c>
       <c r="AB50" t="s">
         <v>34</v>
       </c>
-      <c r="AC50" t="s">
-        <v>34</v>
+      <c r="AC50">
+        <v>4.0303360783709596</v>
       </c>
       <c r="AD50" t="s">
         <v>34</v>
@@ -6359,270 +6317,393 @@
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="B51" t="s">
-        <v>447</v>
+        <v>269</v>
       </c>
       <c r="C51" t="s">
-        <v>448</v>
+        <v>270</v>
       </c>
       <c r="D51" t="s">
-        <v>449</v>
-      </c>
-      <c r="F51" t="s">
-        <v>34</v>
+        <v>271</v>
+      </c>
+      <c r="F51">
+        <v>908123</v>
       </c>
       <c r="G51" t="s">
-        <v>386</v>
-      </c>
-      <c r="I51" t="s">
-        <v>34</v>
-      </c>
-      <c r="J51" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="H51" t="s">
+        <v>36</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>-4.4810484120027798</v>
+      </c>
+      <c r="K51" t="s">
+        <v>37</v>
+      </c>
+      <c r="L51" t="s">
+        <v>61</v>
+      </c>
+      <c r="M51">
+        <v>90.6</v>
       </c>
       <c r="N51" t="s">
-        <v>450</v>
+        <v>272</v>
       </c>
       <c r="O51" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="P51" t="s">
+        <v>41</v>
       </c>
       <c r="Q51" t="s">
         <v>42</v>
       </c>
-      <c r="S51" t="s">
-        <v>34</v>
-      </c>
-      <c r="U51" t="s">
-        <v>34</v>
+      <c r="R51" t="s">
+        <v>43</v>
+      </c>
+      <c r="S51">
+        <v>51</v>
+      </c>
+      <c r="T51" t="s">
+        <v>273</v>
+      </c>
+      <c r="U51">
+        <v>415</v>
       </c>
       <c r="W51" t="s">
         <v>45</v>
       </c>
-      <c r="AA51" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB51" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC51" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD51" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF51" t="s">
-        <v>34</v>
+      <c r="X51" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA51">
+        <v>0.90608215213912402</v>
+      </c>
+      <c r="AB51">
+        <v>1</v>
+      </c>
+      <c r="AC51">
+        <v>4.0018022426339899</v>
+      </c>
+      <c r="AD51">
+        <v>-0.22806278329319199</v>
+      </c>
+      <c r="AE51">
+        <v>5.3093637291126303E-2</v>
+      </c>
+      <c r="AF51">
+        <v>4.7082642680904199E-3</v>
       </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>451</v>
+        <v>301</v>
       </c>
       <c r="C52" t="s">
-        <v>452</v>
+        <v>302</v>
       </c>
       <c r="D52" t="s">
-        <v>453</v>
-      </c>
-      <c r="F52" t="s">
-        <v>34</v>
+        <v>303</v>
+      </c>
+      <c r="F52">
+        <v>908122</v>
       </c>
       <c r="G52" t="s">
-        <v>386</v>
-      </c>
-      <c r="I52" t="s">
-        <v>34</v>
-      </c>
-      <c r="J52" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="H52" t="s">
+        <v>36</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52">
+        <v>-3.8791821642706501</v>
+      </c>
+      <c r="K52" t="s">
+        <v>37</v>
+      </c>
+      <c r="L52" t="s">
+        <v>74</v>
+      </c>
+      <c r="M52">
+        <v>82</v>
       </c>
       <c r="N52" t="s">
-        <v>454</v>
+        <v>304</v>
       </c>
       <c r="O52" t="s">
-        <v>45</v>
+        <v>305</v>
+      </c>
+      <c r="P52" t="s">
+        <v>41</v>
       </c>
       <c r="Q52" t="s">
         <v>42</v>
       </c>
-      <c r="S52" t="s">
-        <v>34</v>
-      </c>
-      <c r="U52" t="s">
-        <v>34</v>
+      <c r="R52" t="s">
+        <v>43</v>
+      </c>
+      <c r="S52">
+        <v>48</v>
+      </c>
+      <c r="T52" t="s">
+        <v>306</v>
+      </c>
+      <c r="U52">
+        <v>101</v>
       </c>
       <c r="W52" t="s">
         <v>45</v>
       </c>
-      <c r="AA52" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB52" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC52" t="s">
-        <v>34</v>
+      <c r="X52" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA52">
+        <v>0.97332031951824105</v>
+      </c>
+      <c r="AB52">
+        <v>2</v>
+      </c>
+      <c r="AC52">
+        <v>3.9467308601403102</v>
       </c>
       <c r="AD52" t="s">
         <v>34</v>
       </c>
-      <c r="AE52" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF52" t="s">
-        <v>34</v>
+      <c r="AE52">
+        <v>8.9628265803687102E-2</v>
+      </c>
+      <c r="AF52">
+        <v>2.9685424462979901E-3</v>
       </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>455</v>
+        <v>112</v>
       </c>
       <c r="C53" t="s">
-        <v>456</v>
+        <v>113</v>
       </c>
       <c r="D53" t="s">
-        <v>457</v>
-      </c>
-      <c r="F53" t="s">
-        <v>34</v>
+        <v>114</v>
+      </c>
+      <c r="F53">
+        <v>906826</v>
       </c>
       <c r="G53" t="s">
-        <v>386</v>
-      </c>
-      <c r="I53" t="s">
-        <v>34</v>
-      </c>
-      <c r="J53" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="H53" t="s">
+        <v>60</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>-4.0641981705360504</v>
+      </c>
+      <c r="K53" t="s">
+        <v>37</v>
+      </c>
+      <c r="L53" t="s">
+        <v>61</v>
+      </c>
+      <c r="M53">
+        <v>80.2</v>
       </c>
       <c r="N53" t="s">
-        <v>458</v>
+        <v>115</v>
       </c>
       <c r="O53" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="P53" t="s">
+        <v>41</v>
       </c>
       <c r="Q53" t="s">
         <v>42</v>
       </c>
-      <c r="S53" t="s">
-        <v>34</v>
-      </c>
-      <c r="U53" t="s">
-        <v>34</v>
+      <c r="R53" t="s">
+        <v>43</v>
+      </c>
+      <c r="S53">
+        <v>43</v>
+      </c>
+      <c r="T53" t="s">
+        <v>116</v>
+      </c>
+      <c r="U53">
+        <v>1748</v>
       </c>
       <c r="W53" t="s">
         <v>45</v>
       </c>
-      <c r="AA53" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB53" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC53" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD53" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE53" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF53" t="s">
-        <v>34</v>
+      <c r="X53" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA53">
+        <v>2.41308762690401</v>
+      </c>
+      <c r="AB53">
+        <v>7</v>
+      </c>
+      <c r="AC53">
+        <v>3.75915583380027</v>
+      </c>
+      <c r="AD53">
+        <v>0.91356401963621003</v>
+      </c>
+      <c r="AE53">
+        <v>-0.105899634714018</v>
+      </c>
+      <c r="AF53">
+        <v>2.72735890267903E-2</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>459</v>
+        <v>112</v>
       </c>
       <c r="C54" t="s">
-        <v>460</v>
+        <v>113</v>
       </c>
       <c r="D54" t="s">
-        <v>461</v>
-      </c>
-      <c r="F54" t="s">
-        <v>34</v>
+        <v>114</v>
+      </c>
+      <c r="F54">
+        <v>906826</v>
       </c>
       <c r="G54" t="s">
-        <v>386</v>
-      </c>
-      <c r="I54" t="s">
-        <v>34</v>
-      </c>
-      <c r="J54" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="H54" t="s">
+        <v>60</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>-4.0641981705360504</v>
+      </c>
+      <c r="K54" t="s">
+        <v>37</v>
+      </c>
+      <c r="L54" t="s">
+        <v>61</v>
+      </c>
+      <c r="M54">
+        <v>80.2</v>
       </c>
       <c r="N54" t="s">
-        <v>462</v>
+        <v>115</v>
       </c>
       <c r="O54" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="P54" t="s">
+        <v>41</v>
       </c>
       <c r="Q54" t="s">
         <v>42</v>
       </c>
-      <c r="S54" t="s">
-        <v>34</v>
-      </c>
-      <c r="U54" t="s">
-        <v>34</v>
+      <c r="R54" t="s">
+        <v>43</v>
+      </c>
+      <c r="S54">
+        <v>43</v>
+      </c>
+      <c r="T54" t="s">
+        <v>116</v>
+      </c>
+      <c r="U54">
+        <v>1748</v>
       </c>
       <c r="W54" t="s">
         <v>45</v>
       </c>
-      <c r="AA54" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC54" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD54" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE54" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF54" t="s">
-        <v>34</v>
+      <c r="X54" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA54">
+        <v>2.41308762690401</v>
+      </c>
+      <c r="AB54">
+        <v>7</v>
+      </c>
+      <c r="AC54">
+        <v>3.75915583380027</v>
+      </c>
+      <c r="AD54">
+        <v>0.36252444365717001</v>
+      </c>
+      <c r="AE54">
+        <v>-0.105899634714018</v>
+      </c>
+      <c r="AF54">
+        <v>2.72735890267903E-2</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="B55" t="s">
-        <v>463</v>
+        <v>264</v>
       </c>
       <c r="C55" t="s">
-        <v>464</v>
+        <v>265</v>
       </c>
       <c r="D55" t="s">
-        <v>465</v>
-      </c>
-      <c r="F55" t="s">
-        <v>34</v>
+        <v>266</v>
+      </c>
+      <c r="F55">
+        <v>909907</v>
       </c>
       <c r="G55" t="s">
-        <v>386</v>
+        <v>35</v>
+      </c>
+      <c r="H55" t="s">
+        <v>36</v>
       </c>
       <c r="I55" t="s">
         <v>34</v>
@@ -6631,7 +6712,7 @@
         <v>34</v>
       </c>
       <c r="N55" t="s">
-        <v>466</v>
+        <v>267</v>
       </c>
       <c r="O55" t="s">
         <v>76</v>
@@ -6642,23 +6723,38 @@
       <c r="Q55" t="s">
         <v>42</v>
       </c>
-      <c r="S55" t="s">
-        <v>34</v>
-      </c>
-      <c r="U55" t="s">
-        <v>34</v>
+      <c r="R55" t="s">
+        <v>68</v>
+      </c>
+      <c r="S55">
+        <v>47</v>
+      </c>
+      <c r="T55" t="s">
+        <v>268</v>
+      </c>
+      <c r="U55">
+        <v>429</v>
       </c>
       <c r="W55" t="s">
         <v>45</v>
       </c>
-      <c r="AA55" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB55" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC55" t="s">
-        <v>34</v>
+      <c r="X55" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA55">
+        <v>0.57784886749541498</v>
+      </c>
+      <c r="AB55">
+        <v>1</v>
+      </c>
+      <c r="AC55">
+        <v>3.75381844317354</v>
       </c>
       <c r="AD55" t="s">
         <v>34</v>
@@ -6672,19 +6768,19 @@
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="C56" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="D56" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="F56">
-        <v>1303900</v>
+        <v>910910</v>
       </c>
       <c r="G56" t="s">
         <v>35</v>
@@ -6692,14 +6788,14 @@
       <c r="H56" t="s">
         <v>36</v>
       </c>
-      <c r="I56" t="s">
-        <v>34</v>
-      </c>
-      <c r="J56" t="s">
-        <v>34</v>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>-0.22145012423309801</v>
       </c>
       <c r="N56" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="O56" t="s">
         <v>45</v>
@@ -6714,13 +6810,13 @@
         <v>68</v>
       </c>
       <c r="S56">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="T56" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="U56">
-        <v>653</v>
+        <v>1754</v>
       </c>
       <c r="W56" t="s">
         <v>45</v>
@@ -6729,22 +6825,22 @@
         <v>70</v>
       </c>
       <c r="Y56" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="Z56" t="s">
         <v>56</v>
       </c>
       <c r="AA56">
-        <v>2.9771858883289202</v>
+        <v>1.01057799741943</v>
       </c>
       <c r="AB56">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AC56">
-        <v>7.2942531364445102</v>
-      </c>
-      <c r="AD56">
-        <v>3.6354554367332401</v>
+        <v>3.7333543406138299</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>34</v>
       </c>
       <c r="AE56" t="s">
         <v>34</v>
@@ -6755,19 +6851,19 @@
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>290</v>
       </c>
       <c r="C57" t="s">
-        <v>50</v>
+        <v>291</v>
       </c>
       <c r="D57" t="s">
-        <v>51</v>
+        <v>292</v>
       </c>
       <c r="F57">
-        <v>905946</v>
+        <v>924240</v>
       </c>
       <c r="G57" t="s">
         <v>35</v>
@@ -6776,22 +6872,22 @@
         <v>36</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57">
-        <v>-2.4936754521313902</v>
+        <v>-3.7175629928656799</v>
       </c>
       <c r="K57" t="s">
         <v>37</v>
       </c>
       <c r="L57" t="s">
-        <v>52</v>
+        <v>293</v>
       </c>
       <c r="M57">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="N57" t="s">
-        <v>53</v>
+        <v>294</v>
       </c>
       <c r="O57" t="s">
         <v>40</v>
@@ -6806,13 +6902,13 @@
         <v>43</v>
       </c>
       <c r="S57">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="T57" t="s">
-        <v>54</v>
+        <v>295</v>
       </c>
       <c r="U57">
-        <v>588</v>
+        <v>344</v>
       </c>
       <c r="W57" t="s">
         <v>45</v>
@@ -6824,42 +6920,42 @@
         <v>55</v>
       </c>
       <c r="Z57" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="AA57">
-        <v>0.63335422359053795</v>
+        <v>0.72454611455812401</v>
       </c>
       <c r="AB57">
         <v>1</v>
       </c>
       <c r="AC57">
-        <v>4.3448284969974402</v>
-      </c>
-      <c r="AD57">
-        <v>2.5183452716931698</v>
+        <v>3.68144926531496</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>34</v>
       </c>
       <c r="AE57">
-        <v>-0.199605470158742</v>
+        <v>9.59963337096605E-2</v>
       </c>
       <c r="AF57">
-        <v>6.4619314347952997E-2</v>
+        <v>2.5395695066008001E-3</v>
       </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B58" t="s">
-        <v>253</v>
+        <v>193</v>
       </c>
       <c r="C58" t="s">
-        <v>254</v>
+        <v>194</v>
       </c>
       <c r="D58" t="s">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="F58">
-        <v>946382</v>
+        <v>925338</v>
       </c>
       <c r="G58" t="s">
         <v>35</v>
@@ -6871,19 +6967,19 @@
         <v>3</v>
       </c>
       <c r="J58">
-        <v>-2.9132639587805902</v>
+        <v>-4.3352500877617199</v>
       </c>
       <c r="K58" t="s">
         <v>37</v>
       </c>
       <c r="L58" t="s">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="M58">
-        <v>93.5</v>
+        <v>92</v>
       </c>
       <c r="N58" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="O58" t="s">
         <v>40</v>
@@ -6895,63 +6991,63 @@
         <v>42</v>
       </c>
       <c r="R58" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="S58">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="T58" t="s">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="U58">
-        <v>363</v>
+        <v>1796</v>
       </c>
       <c r="W58" t="s">
         <v>45</v>
       </c>
       <c r="X58" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y58" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="Z58" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="AA58">
-        <v>1.85691346019573</v>
+        <v>1.5743760170909999</v>
       </c>
       <c r="AB58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC58">
-        <v>6.24355484277846</v>
+        <v>3.6553518286125501</v>
       </c>
       <c r="AD58">
-        <v>2.1939239987622798</v>
+        <v>0.16130199289026201</v>
       </c>
       <c r="AE58">
-        <v>-0.30837531593258</v>
+        <v>5.9771904152863799E-2</v>
       </c>
       <c r="AF58">
-        <v>0.17658047161222501</v>
+        <v>3.07436853600399E-3</v>
       </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="D59" t="s">
-        <v>73</v>
-      </c>
-      <c r="F59" t="s">
-        <v>34</v>
+        <v>129</v>
+      </c>
+      <c r="F59">
+        <v>906844</v>
       </c>
       <c r="G59" t="s">
         <v>35</v>
@@ -6963,22 +7059,22 @@
         <v>2</v>
       </c>
       <c r="J59">
-        <v>-4.2902295939906603</v>
+        <v>-1.6390147167998099</v>
       </c>
       <c r="K59" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="L59" t="s">
         <v>74</v>
       </c>
       <c r="M59">
-        <v>79.099999999999994</v>
+        <v>44.1</v>
       </c>
       <c r="N59" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="O59" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="P59" t="s">
         <v>41</v>
@@ -6987,155 +7083,155 @@
         <v>42</v>
       </c>
       <c r="R59" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="S59">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T59" t="s">
-        <v>77</v>
-      </c>
-      <c r="U59" t="s">
-        <v>34</v>
+        <v>133</v>
+      </c>
+      <c r="U59">
+        <v>302</v>
       </c>
       <c r="W59" t="s">
         <v>45</v>
       </c>
       <c r="X59" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="Y59" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="Z59" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="AA59">
-        <v>1.8775885633481899</v>
+        <v>1.04683641635127</v>
       </c>
       <c r="AB59">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AC59">
-        <v>4.2697812382743798</v>
-      </c>
-      <c r="AD59">
-        <v>1.8252386303530499</v>
+        <v>3.5134907455881201</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>34</v>
       </c>
       <c r="AE59">
-        <v>-0.207072593859355</v>
+        <v>0.168819627738412</v>
       </c>
       <c r="AF59">
-        <v>8.58697115140864E-2</v>
+        <v>2.5145300594147601E-3</v>
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>218</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>219</v>
       </c>
       <c r="D60" t="s">
-        <v>59</v>
-      </c>
-      <c r="F60" t="s">
-        <v>34</v>
+        <v>220</v>
+      </c>
+      <c r="F60">
+        <v>749712</v>
       </c>
       <c r="G60" t="s">
         <v>35</v>
       </c>
       <c r="H60" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="I60">
         <v>3</v>
       </c>
       <c r="J60">
-        <v>-3.4146547554709699</v>
+        <v>-5.1339742626321803</v>
       </c>
       <c r="K60" t="s">
         <v>37</v>
       </c>
       <c r="L60" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="M60">
-        <v>69.599999999999994</v>
+        <v>47.4</v>
       </c>
       <c r="N60" t="s">
-        <v>62</v>
+        <v>221</v>
       </c>
       <c r="O60" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P60" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q60" t="s">
         <v>42</v>
       </c>
       <c r="R60" t="s">
+        <v>68</v>
+      </c>
+      <c r="S60">
         <v>43</v>
       </c>
-      <c r="S60">
-        <v>50</v>
-      </c>
       <c r="T60" t="s">
-        <v>63</v>
-      </c>
-      <c r="U60" t="s">
-        <v>34</v>
+        <v>222</v>
+      </c>
+      <c r="U60">
+        <v>94</v>
       </c>
       <c r="W60" t="s">
         <v>45</v>
       </c>
       <c r="X60" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y60" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="Z60" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="AA60">
-        <v>0.710134390575483</v>
+        <v>0.80440587918783202</v>
       </c>
       <c r="AB60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC60">
-        <v>5.2410774581750399</v>
+        <v>3.4594316186373</v>
       </c>
       <c r="AD60">
-        <v>1.0045916054242801</v>
+        <v>-0.40554403265266997</v>
       </c>
       <c r="AE60">
-        <v>-0.25886595118868</v>
+        <v>0.14961853423441401</v>
       </c>
       <c r="AF60">
-        <v>0.133999269911526</v>
+        <v>6.5215043068940102E-4</v>
       </c>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B61" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="C61" t="s">
-        <v>249</v>
+        <v>188</v>
       </c>
       <c r="D61" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="F61">
-        <v>905960</v>
+        <v>1240172</v>
       </c>
       <c r="G61" t="s">
         <v>35</v>
@@ -7144,22 +7240,22 @@
         <v>36</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J61">
-        <v>-3.8395206423862498</v>
+        <v>-5.2426700729640601</v>
       </c>
       <c r="K61" t="s">
         <v>37</v>
       </c>
       <c r="L61" t="s">
-        <v>74</v>
+        <v>190</v>
       </c>
       <c r="M61">
-        <v>91</v>
+        <v>52.7</v>
       </c>
       <c r="N61" t="s">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="O61" t="s">
         <v>40</v>
@@ -7174,13 +7270,13 @@
         <v>43</v>
       </c>
       <c r="S61">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="T61" t="s">
-        <v>252</v>
+        <v>192</v>
       </c>
       <c r="U61">
-        <v>1013</v>
+        <v>927</v>
       </c>
       <c r="W61" t="s">
         <v>45</v>
@@ -7195,66 +7291,69 @@
         <v>106</v>
       </c>
       <c r="AA61">
-        <v>0.84743175382551705</v>
+        <v>0.68081659241296899</v>
       </c>
       <c r="AB61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC61">
-        <v>4.3305584000308004</v>
+        <v>3.4168397419128298</v>
       </c>
       <c r="AD61">
-        <v>0.95604482482986597</v>
+        <v>-0.47420584995901399</v>
       </c>
       <c r="AE61">
-        <v>-9.8332622205870801E-2</v>
+        <v>-4.9393719674339302E-2</v>
       </c>
       <c r="AF61">
-        <v>2.0266117880408701E-2</v>
+        <v>1.9057412158249201E-2</v>
       </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="C62" t="s">
-        <v>224</v>
+        <v>168</v>
       </c>
       <c r="D62" t="s">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="F62">
-        <v>1298157</v>
+        <v>749710</v>
       </c>
       <c r="G62" t="s">
         <v>35</v>
       </c>
       <c r="H62" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J62">
-        <v>-6.4614182921720502</v>
+        <v>-3.4899515320077898</v>
+      </c>
+      <c r="K62" t="s">
+        <v>37</v>
       </c>
       <c r="L62" t="s">
         <v>74</v>
       </c>
       <c r="M62">
-        <v>95.5</v>
+        <v>84</v>
       </c>
       <c r="N62" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="O62" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P62" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q62" t="s">
         <v>42</v>
@@ -7263,13 +7362,13 @@
         <v>68</v>
       </c>
       <c r="S62">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="T62" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="U62">
-        <v>479</v>
+        <v>1316</v>
       </c>
       <c r="W62" t="s">
         <v>45</v>
@@ -7278,45 +7377,45 @@
         <v>70</v>
       </c>
       <c r="Y62" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="Z62" t="s">
         <v>86</v>
       </c>
       <c r="AA62">
-        <v>1.8075855759411801</v>
+        <v>0.90699376953089905</v>
       </c>
       <c r="AB62">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AC62">
-        <v>4.9777378492428204</v>
+        <v>3.4087118610294298</v>
       </c>
       <c r="AD62">
-        <v>0.95457000926020696</v>
+        <v>-1.2220931443204199</v>
       </c>
       <c r="AE62">
-        <v>-0.14533836224590499</v>
+        <v>-0.15424744684771499</v>
       </c>
       <c r="AF62">
-        <v>5.3135415653419199E-2</v>
+        <v>4.0857058768109702E-2</v>
       </c>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C63" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="F63">
-        <v>906826</v>
+        <v>1290798</v>
       </c>
       <c r="G63" t="s">
         <v>35</v>
@@ -7324,23 +7423,14 @@
       <c r="H63" t="s">
         <v>60</v>
       </c>
-      <c r="I63">
-        <v>2</v>
-      </c>
-      <c r="J63">
-        <v>-4.0641981705360504</v>
-      </c>
-      <c r="K63" t="s">
-        <v>37</v>
-      </c>
-      <c r="L63" t="s">
-        <v>61</v>
-      </c>
-      <c r="M63">
-        <v>80.2</v>
+      <c r="I63" t="s">
+        <v>34</v>
+      </c>
+      <c r="J63" t="s">
+        <v>34</v>
       </c>
       <c r="N63" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="O63" t="s">
         <v>40</v>
@@ -7352,63 +7442,63 @@
         <v>42</v>
       </c>
       <c r="R63" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="S63">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="T63" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="U63">
-        <v>1748</v>
+        <v>1187</v>
       </c>
       <c r="W63" t="s">
         <v>45</v>
       </c>
       <c r="X63" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="Y63" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="Z63" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="AA63">
-        <v>2.41308762690401</v>
+        <v>0.70627228574574796</v>
       </c>
       <c r="AB63">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AC63">
-        <v>3.75915583380027</v>
+        <v>3.0143552929770698</v>
       </c>
       <c r="AD63">
-        <v>0.91356401963621003</v>
-      </c>
-      <c r="AE63">
-        <v>-0.105899634714018</v>
-      </c>
-      <c r="AF63">
-        <v>2.72735890267903E-2</v>
+        <v>0.396834027889996</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B64" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="C64" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="F64">
-        <v>905945</v>
+        <v>905951</v>
       </c>
       <c r="G64" t="s">
         <v>35</v>
@@ -7417,28 +7507,28 @@
         <v>36</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J64">
-        <v>-4.8207713619167496</v>
+        <v>-4.5319941776475101</v>
       </c>
       <c r="K64" t="s">
         <v>37</v>
       </c>
       <c r="L64" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="M64">
-        <v>68</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="N64" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="O64" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P64" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q64" t="s">
         <v>42</v>
@@ -7447,13 +7537,13 @@
         <v>68</v>
       </c>
       <c r="S64">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="T64" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="U64">
-        <v>1286</v>
+        <v>1835</v>
       </c>
       <c r="W64" t="s">
         <v>45</v>
@@ -7462,45 +7552,45 @@
         <v>70</v>
       </c>
       <c r="Y64" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="Z64" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="AA64">
-        <v>1.2192638277202501</v>
+        <v>1.3626478772541499</v>
       </c>
       <c r="AB64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC64">
-        <v>4.5166455577809597</v>
+        <v>2.6644828403646801</v>
       </c>
       <c r="AD64">
-        <v>0.63722340272617695</v>
-      </c>
-      <c r="AE64" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF64" t="s">
-        <v>34</v>
+        <v>-0.34890532880361602</v>
+      </c>
+      <c r="AE64">
+        <v>2.40292126613257E-2</v>
+      </c>
+      <c r="AF64">
+        <v>4.5847813849725604E-3</v>
       </c>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B65" t="s">
-        <v>152</v>
+        <v>296</v>
       </c>
       <c r="C65" t="s">
-        <v>153</v>
+        <v>297</v>
       </c>
       <c r="D65" t="s">
-        <v>154</v>
+        <v>298</v>
       </c>
       <c r="F65">
-        <v>906851</v>
+        <v>924106</v>
       </c>
       <c r="G65" t="s">
         <v>35</v>
@@ -7508,20 +7598,14 @@
       <c r="H65" t="s">
         <v>60</v>
       </c>
-      <c r="I65">
-        <v>2</v>
-      </c>
-      <c r="J65">
-        <v>-2.8790897518819301</v>
-      </c>
-      <c r="L65" t="s">
-        <v>74</v>
-      </c>
-      <c r="M65">
-        <v>68</v>
+      <c r="I65" t="s">
+        <v>34</v>
+      </c>
+      <c r="J65" t="s">
+        <v>34</v>
       </c>
       <c r="N65" t="s">
-        <v>155</v>
+        <v>299</v>
       </c>
       <c r="O65" t="s">
         <v>40</v>
@@ -7536,13 +7620,13 @@
         <v>68</v>
       </c>
       <c r="S65">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="T65" t="s">
-        <v>156</v>
+        <v>300</v>
       </c>
       <c r="U65">
-        <v>1786</v>
+        <v>1610</v>
       </c>
       <c r="W65" t="s">
         <v>45</v>
@@ -7551,45 +7635,45 @@
         <v>70</v>
       </c>
       <c r="Y65" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="Z65" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="AA65">
-        <v>0.41051529390013902</v>
+        <v>1.0144559924332801</v>
       </c>
       <c r="AB65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC65">
-        <v>4.2272789944683202</v>
-      </c>
-      <c r="AD65">
-        <v>0.53662759891332101</v>
-      </c>
-      <c r="AE65">
-        <v>0.16743687782545699</v>
-      </c>
-      <c r="AF65">
-        <v>6.5931706529449505E-4</v>
+        <v>2.6276068381296498</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="C66" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="D66" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="F66">
-        <v>906801</v>
+        <v>910704</v>
       </c>
       <c r="G66" t="s">
         <v>35</v>
@@ -7597,189 +7681,207 @@
       <c r="H66" t="s">
         <v>36</v>
       </c>
-      <c r="I66" t="s">
-        <v>34</v>
-      </c>
-      <c r="J66" t="s">
-        <v>34</v>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66">
+        <v>-2.8551433217721902</v>
+      </c>
+      <c r="K66" t="s">
+        <v>37</v>
+      </c>
+      <c r="L66" t="s">
+        <v>61</v>
+      </c>
+      <c r="M66">
+        <v>63.8</v>
       </c>
       <c r="N66" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="O66" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P66" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="Q66" t="s">
         <v>42</v>
       </c>
       <c r="R66" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="S66">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="T66" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="U66">
-        <v>2264</v>
+        <v>726</v>
       </c>
       <c r="W66" t="s">
         <v>45</v>
       </c>
       <c r="X66" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="Y66" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="Z66" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="AA66">
-        <v>0.95396958958175404</v>
+        <v>0.65228360328698898</v>
       </c>
       <c r="AB66">
         <v>2</v>
       </c>
       <c r="AC66">
-        <v>4.10517519226548</v>
+        <v>2.5385381636297999</v>
       </c>
       <c r="AD66">
-        <v>0.46770595039518598</v>
-      </c>
-      <c r="AE66" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF66" t="s">
-        <v>34</v>
+        <v>-1.2097738563481899</v>
+      </c>
+      <c r="AE66">
+        <v>-1.28397130970793E-2</v>
+      </c>
+      <c r="AF66">
+        <v>9.6154282597393902E-3</v>
       </c>
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C67" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D67" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F67">
-        <v>1290798</v>
+        <v>749711</v>
       </c>
       <c r="G67" t="s">
         <v>35</v>
       </c>
       <c r="H67" t="s">
-        <v>60</v>
-      </c>
-      <c r="I67" t="s">
-        <v>34</v>
-      </c>
-      <c r="J67" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>-2.7622337671381301</v>
+      </c>
+      <c r="K67" t="s">
+        <v>81</v>
+      </c>
+      <c r="L67" t="s">
+        <v>74</v>
+      </c>
+      <c r="M67">
+        <v>90.8</v>
       </c>
       <c r="N67" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="O67" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P67" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q67" t="s">
         <v>42</v>
       </c>
       <c r="R67" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="S67">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="T67" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="U67">
-        <v>1187</v>
+        <v>1644</v>
       </c>
       <c r="W67" t="s">
         <v>45</v>
       </c>
       <c r="X67" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="Y67" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="Z67" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="AA67">
-        <v>0.70627228574574796</v>
+        <v>1.14381585656922</v>
       </c>
       <c r="AB67">
         <v>1</v>
       </c>
       <c r="AC67">
-        <v>3.0143552929770698</v>
+        <v>2.2172307162206701</v>
       </c>
       <c r="AD67">
-        <v>0.396834027889996</v>
-      </c>
-      <c r="AE67" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF67" t="s">
-        <v>34</v>
+        <v>-0.43008046295336499</v>
+      </c>
+      <c r="AE67">
+        <v>9.3371548240274604E-2</v>
+      </c>
+      <c r="AF67">
+        <v>5.0620853708400297E-3</v>
       </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="C68" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="D68" t="s">
-        <v>114</v>
-      </c>
-      <c r="F68">
-        <v>906826</v>
+        <v>33</v>
+      </c>
+      <c r="F68" t="s">
+        <v>34</v>
       </c>
       <c r="G68" t="s">
         <v>35</v>
       </c>
       <c r="H68" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="I68">
         <v>2</v>
       </c>
       <c r="J68">
-        <v>-4.0641981705360504</v>
+        <v>-2.9322500616974199</v>
       </c>
       <c r="K68" t="s">
         <v>37</v>
       </c>
       <c r="L68" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="M68">
-        <v>80.2</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="N68" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="O68" t="s">
         <v>40</v>
@@ -7797,10 +7899,10 @@
         <v>43</v>
       </c>
       <c r="T68" t="s">
-        <v>116</v>
-      </c>
-      <c r="U68">
-        <v>1748</v>
+        <v>44</v>
+      </c>
+      <c r="U68" t="s">
+        <v>34</v>
       </c>
       <c r="W68" t="s">
         <v>45</v>
@@ -7809,45 +7911,45 @@
         <v>46</v>
       </c>
       <c r="Y68" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="Z68" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="AA68">
-        <v>2.41308762690401</v>
+        <v>0.79193883994905501</v>
       </c>
       <c r="AB68">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AC68">
-        <v>3.75915583380027</v>
-      </c>
-      <c r="AD68">
-        <v>0.36252444365717001</v>
+        <v>2.1309308698264502</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>34</v>
       </c>
       <c r="AE68">
-        <v>-0.105899634714018</v>
+        <v>-2.96661310295127E-2</v>
       </c>
       <c r="AF68">
-        <v>2.72735890267903E-2</v>
+        <v>1.64920813569936E-2</v>
       </c>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B69" t="s">
-        <v>203</v>
+        <v>274</v>
       </c>
       <c r="C69" t="s">
-        <v>204</v>
+        <v>275</v>
       </c>
       <c r="D69" t="s">
-        <v>205</v>
+        <v>276</v>
       </c>
       <c r="F69">
-        <v>1290922</v>
+        <v>910927</v>
       </c>
       <c r="G69" t="s">
         <v>35</v>
@@ -7855,106 +7957,115 @@
       <c r="H69" t="s">
         <v>60</v>
       </c>
-      <c r="I69" t="s">
-        <v>34</v>
-      </c>
-      <c r="J69" t="s">
-        <v>34</v>
+      <c r="I69">
+        <v>3</v>
+      </c>
+      <c r="J69">
+        <v>-4.2174075902224901</v>
+      </c>
+      <c r="K69" t="s">
+        <v>37</v>
+      </c>
+      <c r="L69" t="s">
+        <v>277</v>
+      </c>
+      <c r="M69">
+        <v>56.8</v>
       </c>
       <c r="N69" t="s">
-        <v>206</v>
+        <v>278</v>
       </c>
       <c r="O69" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P69" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="Q69" t="s">
         <v>42</v>
       </c>
       <c r="R69" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="S69">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="T69" t="s">
-        <v>207</v>
+        <v>279</v>
       </c>
       <c r="U69">
-        <v>743</v>
+        <v>4</v>
       </c>
       <c r="W69" t="s">
         <v>45</v>
       </c>
       <c r="X69" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="Y69" t="s">
         <v>85</v>
       </c>
       <c r="Z69" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="AA69">
-        <v>0.78139736894814305</v>
+        <v>0.99941414687716601</v>
       </c>
       <c r="AB69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC69">
-        <v>1.3950627995175799</v>
+        <v>1.9781956296816501</v>
       </c>
       <c r="AD69">
-        <v>0.17151297437042701</v>
-      </c>
-      <c r="AE69" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF69" t="s">
-        <v>34</v>
+        <v>-1.31328430524538</v>
+      </c>
+      <c r="AE69">
+        <v>-2.16387444364027E-2</v>
+      </c>
+      <c r="AF69">
+        <v>1.03615436720713E-2</v>
       </c>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="B70" t="s">
-        <v>193</v>
+        <v>369</v>
       </c>
       <c r="C70" t="s">
-        <v>194</v>
+        <v>370</v>
       </c>
       <c r="D70" t="s">
-        <v>195</v>
-      </c>
-      <c r="F70">
-        <v>925338</v>
+        <v>371</v>
+      </c>
+      <c r="F70" t="s">
+        <v>34</v>
       </c>
       <c r="G70" t="s">
         <v>35</v>
       </c>
       <c r="H70" t="s">
-        <v>36</v>
+        <v>341</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J70">
-        <v>-4.3352500877617199</v>
+        <v>-2.3865598803027699</v>
       </c>
       <c r="K70" t="s">
         <v>37</v>
       </c>
       <c r="L70" t="s">
-        <v>74</v>
+        <v>372</v>
       </c>
       <c r="M70">
-        <v>92</v>
+        <v>85.4</v>
       </c>
       <c r="N70" t="s">
-        <v>196</v>
+        <v>373</v>
       </c>
       <c r="O70" t="s">
         <v>40</v>
@@ -7966,63 +8077,60 @@
         <v>42</v>
       </c>
       <c r="R70" t="s">
-        <v>68</v>
-      </c>
-      <c r="S70">
-        <v>44</v>
-      </c>
-      <c r="T70" t="s">
-        <v>197</v>
-      </c>
-      <c r="U70">
-        <v>1796</v>
+        <v>43</v>
+      </c>
+      <c r="S70" t="s">
+        <v>34</v>
+      </c>
+      <c r="U70" t="s">
+        <v>34</v>
       </c>
       <c r="W70" t="s">
         <v>45</v>
       </c>
       <c r="X70" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="Y70" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="Z70" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="AA70">
-        <v>1.5743760170909999</v>
-      </c>
-      <c r="AB70">
-        <v>4</v>
+        <v>1.80364324971655</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>34</v>
       </c>
       <c r="AC70">
-        <v>3.6553518286125501</v>
-      </c>
-      <c r="AD70">
-        <v>0.16130199289026201</v>
+        <v>1.9335726382610201</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>34</v>
       </c>
       <c r="AE70">
-        <v>5.9771904152863799E-2</v>
+        <v>-1.0452531325336001</v>
       </c>
       <c r="AF70">
-        <v>3.07436853600399E-3</v>
+        <v>0.81310048020496395</v>
       </c>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B71" t="s">
-        <v>269</v>
+        <v>208</v>
       </c>
       <c r="C71" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
       <c r="D71" t="s">
-        <v>271</v>
+        <v>210</v>
       </c>
       <c r="F71">
-        <v>908123</v>
+        <v>907048</v>
       </c>
       <c r="G71" t="s">
         <v>35</v>
@@ -8030,50 +8138,41 @@
       <c r="H71" t="s">
         <v>36</v>
       </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
-      <c r="J71">
-        <v>-4.4810484120027798</v>
-      </c>
-      <c r="K71" t="s">
-        <v>37</v>
-      </c>
-      <c r="L71" t="s">
-        <v>61</v>
-      </c>
-      <c r="M71">
-        <v>90.6</v>
+      <c r="I71" t="s">
+        <v>34</v>
+      </c>
+      <c r="J71" t="s">
+        <v>34</v>
       </c>
       <c r="N71" t="s">
-        <v>272</v>
+        <v>211</v>
       </c>
       <c r="O71" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P71" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q71" t="s">
         <v>42</v>
       </c>
       <c r="R71" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="S71">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="T71" t="s">
-        <v>273</v>
+        <v>212</v>
       </c>
       <c r="U71">
-        <v>415</v>
+        <v>937</v>
       </c>
       <c r="W71" t="s">
         <v>45</v>
       </c>
       <c r="X71" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y71" t="s">
         <v>85</v>
@@ -8082,39 +8181,39 @@
         <v>86</v>
       </c>
       <c r="AA71">
-        <v>0.90608215213912402</v>
+        <v>0.34981119864631</v>
       </c>
       <c r="AB71">
         <v>1</v>
       </c>
       <c r="AC71">
-        <v>4.0018022426339899</v>
+        <v>1.87578006306849</v>
       </c>
       <c r="AD71">
-        <v>-0.22806278329319199</v>
-      </c>
-      <c r="AE71">
-        <v>5.3093637291126303E-2</v>
-      </c>
-      <c r="AF71">
-        <v>4.7082642680904199E-3</v>
+        <v>-0.66276056725970101</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="C72" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="D72" t="s">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="F72">
-        <v>905951</v>
+        <v>907047</v>
       </c>
       <c r="G72" t="s">
         <v>35</v>
@@ -8126,19 +8225,19 @@
         <v>3</v>
       </c>
       <c r="J72">
-        <v>-4.5319941776475101</v>
+        <v>-5.8562531901393999</v>
       </c>
       <c r="K72" t="s">
         <v>37</v>
       </c>
       <c r="L72" t="s">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="M72">
-        <v>77.400000000000006</v>
+        <v>97.4</v>
       </c>
       <c r="N72" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="O72" t="s">
         <v>45</v>
@@ -8153,13 +8252,13 @@
         <v>68</v>
       </c>
       <c r="S72">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="T72" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="U72">
-        <v>1835</v>
+        <v>1317</v>
       </c>
       <c r="W72" t="s">
         <v>45</v>
@@ -8171,42 +8270,42 @@
         <v>85</v>
       </c>
       <c r="Z72" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="AA72">
-        <v>1.3626478772541499</v>
+        <v>0.91720800056257001</v>
       </c>
       <c r="AB72">
         <v>2</v>
       </c>
       <c r="AC72">
-        <v>2.6644828403646801</v>
+        <v>1.7739963251111699</v>
       </c>
       <c r="AD72">
-        <v>-0.34890532880361602</v>
+        <v>-0.64808633944801797</v>
       </c>
       <c r="AE72">
-        <v>2.40292126613257E-2</v>
+        <v>1.40820040495587E-2</v>
       </c>
       <c r="AF72">
-        <v>4.5847813849725604E-3</v>
+        <v>7.6486461153531301E-3</v>
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B73" t="s">
-        <v>218</v>
+        <v>117</v>
       </c>
       <c r="C73" t="s">
-        <v>219</v>
+        <v>118</v>
       </c>
       <c r="D73" t="s">
-        <v>220</v>
+        <v>119</v>
       </c>
       <c r="F73">
-        <v>749712</v>
+        <v>749714</v>
       </c>
       <c r="G73" t="s">
         <v>35</v>
@@ -8215,10 +8314,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J73">
-        <v>-5.1339742626321803</v>
+        <v>-5.0646410036140299</v>
       </c>
       <c r="K73" t="s">
         <v>37</v>
@@ -8227,10 +8326,10 @@
         <v>74</v>
       </c>
       <c r="M73">
-        <v>47.4</v>
+        <v>87.5</v>
       </c>
       <c r="N73" t="s">
-        <v>221</v>
+        <v>120</v>
       </c>
       <c r="O73" t="s">
         <v>45</v>
@@ -8245,13 +8344,13 @@
         <v>68</v>
       </c>
       <c r="S73">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="T73" t="s">
-        <v>222</v>
+        <v>121</v>
       </c>
       <c r="U73">
-        <v>94</v>
+        <v>936</v>
       </c>
       <c r="W73" t="s">
         <v>45</v>
@@ -8263,42 +8362,42 @@
         <v>85</v>
       </c>
       <c r="Z73" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="AA73">
-        <v>0.80440587918783202</v>
+        <v>0.78692217918861895</v>
       </c>
       <c r="AB73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC73">
-        <v>3.4594316186373</v>
+        <v>1.7527485914071299</v>
       </c>
       <c r="AD73">
-        <v>-0.40554403265266997</v>
+        <v>-1.2934457352642399</v>
       </c>
       <c r="AE73">
-        <v>0.14961853423441401</v>
+        <v>-9.9094103426491401E-2</v>
       </c>
       <c r="AF73">
-        <v>6.5215043068940102E-4</v>
+        <v>2.7612364858051599E-2</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="C74" t="s">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="D74" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="F74">
-        <v>749711</v>
+        <v>909778</v>
       </c>
       <c r="G74" t="s">
         <v>35</v>
@@ -8306,23 +8405,14 @@
       <c r="H74" t="s">
         <v>36</v>
       </c>
-      <c r="I74">
-        <v>2</v>
-      </c>
-      <c r="J74">
-        <v>-2.7622337671381301</v>
-      </c>
-      <c r="K74" t="s">
-        <v>81</v>
-      </c>
-      <c r="L74" t="s">
-        <v>74</v>
-      </c>
-      <c r="M74">
-        <v>90.8</v>
+      <c r="I74" t="s">
+        <v>34</v>
+      </c>
+      <c r="J74" t="s">
+        <v>34</v>
       </c>
       <c r="N74" t="s">
-        <v>82</v>
+        <v>180</v>
       </c>
       <c r="O74" t="s">
         <v>45</v>
@@ -8337,13 +8427,13 @@
         <v>68</v>
       </c>
       <c r="S74">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="T74" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="U74">
-        <v>1644</v>
+        <v>1090</v>
       </c>
       <c r="W74" t="s">
         <v>45</v>
@@ -8352,75 +8442,75 @@
         <v>70</v>
       </c>
       <c r="Y74" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="Z74" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="AA74">
-        <v>1.14381585656922</v>
+        <v>0.61139929966906004</v>
       </c>
       <c r="AB74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC74">
-        <v>2.2172307162206701</v>
-      </c>
-      <c r="AD74">
-        <v>-0.43008046295336499</v>
-      </c>
-      <c r="AE74">
-        <v>9.3371548240274604E-2</v>
-      </c>
-      <c r="AF74">
-        <v>5.0620853708400297E-3</v>
+        <v>1.5753123306874399</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="B75" t="s">
-        <v>187</v>
+        <v>353</v>
       </c>
       <c r="C75" t="s">
-        <v>188</v>
+        <v>354</v>
       </c>
       <c r="D75" t="s">
-        <v>189</v>
-      </c>
-      <c r="F75">
-        <v>1240172</v>
+        <v>355</v>
+      </c>
+      <c r="F75" t="s">
+        <v>34</v>
       </c>
       <c r="G75" t="s">
         <v>35</v>
       </c>
       <c r="H75" t="s">
-        <v>36</v>
+        <v>341</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J75">
-        <v>-5.2426700729640601</v>
+        <v>-4.0290670194752503</v>
       </c>
       <c r="K75" t="s">
         <v>37</v>
       </c>
       <c r="L75" t="s">
-        <v>190</v>
+        <v>351</v>
       </c>
       <c r="M75">
-        <v>52.7</v>
+        <v>92.6</v>
       </c>
       <c r="N75" t="s">
-        <v>191</v>
+        <v>356</v>
       </c>
       <c r="O75" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P75" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q75" t="s">
         <v>42</v>
@@ -8428,14 +8518,11 @@
       <c r="R75" t="s">
         <v>43</v>
       </c>
-      <c r="S75">
-        <v>43</v>
-      </c>
-      <c r="T75" t="s">
-        <v>192</v>
-      </c>
-      <c r="U75">
-        <v>927</v>
+      <c r="S75" t="s">
+        <v>34</v>
+      </c>
+      <c r="U75" t="s">
+        <v>34</v>
       </c>
       <c r="W75" t="s">
         <v>45</v>
@@ -8450,39 +8537,39 @@
         <v>106</v>
       </c>
       <c r="AA75">
-        <v>0.68081659241296899</v>
-      </c>
-      <c r="AB75">
-        <v>1</v>
+        <v>1.0137102212476099</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>34</v>
       </c>
       <c r="AC75">
-        <v>3.4168397419128298</v>
-      </c>
-      <c r="AD75">
-        <v>-0.47420584995901399</v>
+        <v>1.43829285157915</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>34</v>
       </c>
       <c r="AE75">
-        <v>-4.9393719674339302E-2</v>
+        <v>-0.13809810327713501</v>
       </c>
       <c r="AF75">
-        <v>1.9057412158249201E-2</v>
+        <v>3.7684802086369498E-2</v>
       </c>
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B76" t="s">
-        <v>280</v>
+        <v>203</v>
       </c>
       <c r="C76" t="s">
-        <v>281</v>
+        <v>204</v>
       </c>
       <c r="D76" t="s">
-        <v>282</v>
+        <v>205</v>
       </c>
       <c r="F76">
-        <v>910852</v>
+        <v>1290922</v>
       </c>
       <c r="G76" t="s">
         <v>35</v>
@@ -8497,7 +8584,7 @@
         <v>34</v>
       </c>
       <c r="N76" t="s">
-        <v>283</v>
+        <v>206</v>
       </c>
       <c r="O76" t="s">
         <v>45</v>
@@ -8509,22 +8596,22 @@
         <v>42</v>
       </c>
       <c r="R76" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="S76">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="T76" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
       <c r="U76">
-        <v>113</v>
+        <v>743</v>
       </c>
       <c r="W76" t="s">
         <v>45</v>
       </c>
       <c r="X76" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y76" t="s">
         <v>85</v>
@@ -8533,16 +8620,16 @@
         <v>86</v>
       </c>
       <c r="AA76">
-        <v>0.85429133942399005</v>
+        <v>0.78139736894814305</v>
       </c>
       <c r="AB76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC76">
-        <v>0.83187724119167294</v>
+        <v>1.3950627995175799</v>
       </c>
       <c r="AD76">
-        <v>-0.481002596278439</v>
+        <v>0.17151297437042701</v>
       </c>
       <c r="AE76" t="s">
         <v>34</v>
@@ -8553,19 +8640,19 @@
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B77" t="s">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="C77" t="s">
-        <v>136</v>
+        <v>286</v>
       </c>
       <c r="D77" t="s">
-        <v>137</v>
+        <v>287</v>
       </c>
       <c r="F77">
-        <v>749717</v>
+        <v>749709</v>
       </c>
       <c r="G77" t="s">
         <v>35</v>
@@ -8574,22 +8661,22 @@
         <v>36</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77">
-        <v>-3.2670762872193899</v>
+        <v>-2.61595370261634</v>
       </c>
       <c r="K77" t="s">
         <v>37</v>
       </c>
       <c r="L77" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="M77">
-        <v>60.8</v>
+        <v>66.8</v>
       </c>
       <c r="N77" t="s">
-        <v>139</v>
+        <v>288</v>
       </c>
       <c r="O77" t="s">
         <v>45</v>
@@ -8604,13 +8691,13 @@
         <v>68</v>
       </c>
       <c r="S77">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="T77" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
       <c r="U77">
-        <v>1318</v>
+        <v>2143</v>
       </c>
       <c r="W77" t="s">
         <v>45</v>
@@ -8619,69 +8706,69 @@
         <v>70</v>
       </c>
       <c r="Y77" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="Z77" t="s">
         <v>86</v>
       </c>
       <c r="AA77">
-        <v>1.4545103853328001</v>
+        <v>0.60433354762587099</v>
       </c>
       <c r="AB77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC77">
-        <v>4.9845893503624596</v>
+        <v>1.32192809488736</v>
       </c>
       <c r="AD77">
-        <v>-0.62249145411864704</v>
+        <v>-1.0595587475223101</v>
       </c>
       <c r="AE77">
-        <v>-0.161288917960142</v>
+        <v>-0.13573420175936499</v>
       </c>
       <c r="AF77">
-        <v>3.4110519233220997E-2</v>
+        <v>3.0336202968006501E-2</v>
       </c>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B78" t="s">
-        <v>198</v>
+        <v>348</v>
       </c>
       <c r="C78" t="s">
-        <v>199</v>
+        <v>349</v>
       </c>
       <c r="D78" t="s">
-        <v>200</v>
-      </c>
-      <c r="F78">
-        <v>907047</v>
+        <v>350</v>
+      </c>
+      <c r="F78" t="s">
+        <v>34</v>
       </c>
       <c r="G78" t="s">
         <v>35</v>
       </c>
       <c r="H78" t="s">
-        <v>36</v>
+        <v>341</v>
       </c>
       <c r="I78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J78">
-        <v>-5.8562531901393999</v>
+        <v>-2.8727900282338599</v>
       </c>
       <c r="K78" t="s">
         <v>37</v>
       </c>
       <c r="L78" t="s">
-        <v>74</v>
+        <v>351</v>
       </c>
       <c r="M78">
-        <v>97.4</v>
+        <v>62.3</v>
       </c>
       <c r="N78" t="s">
-        <v>201</v>
+        <v>352</v>
       </c>
       <c r="O78" t="s">
         <v>45</v>
@@ -8695,14 +8782,11 @@
       <c r="R78" t="s">
         <v>68</v>
       </c>
-      <c r="S78">
-        <v>60</v>
-      </c>
-      <c r="T78" t="s">
-        <v>202</v>
-      </c>
-      <c r="U78">
-        <v>1317</v>
+      <c r="S78" t="s">
+        <v>34</v>
+      </c>
+      <c r="U78" t="s">
+        <v>34</v>
       </c>
       <c r="W78" t="s">
         <v>45</v>
@@ -8714,149 +8798,146 @@
         <v>85</v>
       </c>
       <c r="Z78" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="AA78">
-        <v>0.91720800056257001</v>
-      </c>
-      <c r="AB78">
-        <v>2</v>
+        <v>0.901616244878921</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>34</v>
       </c>
       <c r="AC78">
-        <v>1.7739963251111699</v>
-      </c>
-      <c r="AD78">
-        <v>-0.64808633944801797</v>
+        <v>0.99276843076892396</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>34</v>
       </c>
       <c r="AE78">
-        <v>1.40820040495587E-2</v>
+        <v>-0.120706473733283</v>
       </c>
       <c r="AF78">
-        <v>7.6486461153531301E-3</v>
+        <v>2.9920267814385799E-2</v>
       </c>
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B79" t="s">
-        <v>208</v>
+        <v>361</v>
       </c>
       <c r="C79" t="s">
-        <v>209</v>
+        <v>362</v>
       </c>
       <c r="D79" t="s">
-        <v>210</v>
-      </c>
-      <c r="F79">
-        <v>907048</v>
+        <v>363</v>
+      </c>
+      <c r="F79" t="s">
+        <v>34</v>
       </c>
       <c r="G79" t="s">
         <v>35</v>
       </c>
       <c r="H79" t="s">
-        <v>36</v>
-      </c>
-      <c r="I79" t="s">
-        <v>34</v>
-      </c>
-      <c r="J79" t="s">
-        <v>34</v>
+        <v>341</v>
+      </c>
+      <c r="I79">
+        <v>2</v>
+      </c>
+      <c r="J79">
+        <v>-3.6087374032716402</v>
+      </c>
+      <c r="K79" t="s">
+        <v>37</v>
+      </c>
+      <c r="L79" t="s">
+        <v>351</v>
+      </c>
+      <c r="M79">
+        <v>95</v>
       </c>
       <c r="N79" t="s">
-        <v>211</v>
+        <v>364</v>
       </c>
       <c r="O79" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P79" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="Q79" t="s">
         <v>42</v>
       </c>
       <c r="R79" t="s">
-        <v>68</v>
-      </c>
-      <c r="S79">
-        <v>49</v>
-      </c>
-      <c r="T79" t="s">
-        <v>212</v>
-      </c>
-      <c r="U79">
-        <v>937</v>
+        <v>43</v>
+      </c>
+      <c r="S79" t="s">
+        <v>34</v>
+      </c>
+      <c r="U79" t="s">
+        <v>34</v>
       </c>
       <c r="W79" t="s">
         <v>45</v>
       </c>
       <c r="X79" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="Y79" t="s">
         <v>85</v>
       </c>
       <c r="Z79" t="s">
-        <v>86</v>
+        <v>343</v>
       </c>
       <c r="AA79">
-        <v>0.34981119864631</v>
-      </c>
-      <c r="AB79">
-        <v>1</v>
+        <v>0.96082379075705504</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>34</v>
       </c>
       <c r="AC79">
-        <v>1.87578006306849</v>
-      </c>
-      <c r="AD79">
-        <v>-0.66276056725970101</v>
-      </c>
-      <c r="AE79" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF79" t="s">
-        <v>34</v>
+        <v>0.98550043030488499</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE79">
+        <v>5.8709694457034702E-2</v>
+      </c>
+      <c r="AF79">
+        <v>4.2671633318046402E-3</v>
       </c>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B80" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C80" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D80" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F80">
-        <v>749709</v>
+        <v>910852</v>
       </c>
       <c r="G80" t="s">
         <v>35</v>
       </c>
       <c r="H80" t="s">
-        <v>36</v>
-      </c>
-      <c r="I80">
-        <v>2</v>
-      </c>
-      <c r="J80">
-        <v>-2.61595370261634</v>
-      </c>
-      <c r="K80" t="s">
-        <v>37</v>
-      </c>
-      <c r="L80" t="s">
-        <v>74</v>
-      </c>
-      <c r="M80">
-        <v>66.8</v>
+        <v>60</v>
+      </c>
+      <c r="I80" t="s">
+        <v>34</v>
+      </c>
+      <c r="J80" t="s">
+        <v>34</v>
       </c>
       <c r="N80" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="O80" t="s">
         <v>45</v>
@@ -8868,63 +8949,63 @@
         <v>42</v>
       </c>
       <c r="R80" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="S80">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="T80" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="U80">
-        <v>2143</v>
+        <v>113</v>
       </c>
       <c r="W80" t="s">
         <v>45</v>
       </c>
       <c r="X80" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="Y80" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="Z80" t="s">
         <v>86</v>
       </c>
       <c r="AA80">
-        <v>0.60433354762587099</v>
+        <v>0.85429133942399005</v>
       </c>
       <c r="AB80">
         <v>2</v>
       </c>
       <c r="AC80">
-        <v>1.32192809488736</v>
+        <v>0.83187724119167294</v>
       </c>
       <c r="AD80">
-        <v>-1.0595587475223101</v>
-      </c>
-      <c r="AE80">
-        <v>-0.13573420175936499</v>
-      </c>
-      <c r="AF80">
-        <v>3.0336202968006501E-2</v>
+        <v>-0.481002596278439</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF80" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B81" t="s">
-        <v>122</v>
+        <v>312</v>
       </c>
       <c r="C81" t="s">
-        <v>123</v>
+        <v>313</v>
       </c>
       <c r="D81" t="s">
-        <v>124</v>
+        <v>314</v>
       </c>
       <c r="F81">
-        <v>910704</v>
+        <v>907046</v>
       </c>
       <c r="G81" t="s">
         <v>35</v>
@@ -8932,91 +9013,82 @@
       <c r="H81" t="s">
         <v>36</v>
       </c>
-      <c r="I81">
-        <v>2</v>
-      </c>
-      <c r="J81">
-        <v>-2.8551433217721902</v>
-      </c>
-      <c r="K81" t="s">
-        <v>37</v>
-      </c>
-      <c r="L81" t="s">
-        <v>61</v>
-      </c>
-      <c r="M81">
-        <v>63.8</v>
+      <c r="I81" t="s">
+        <v>34</v>
+      </c>
+      <c r="J81" t="s">
+        <v>34</v>
       </c>
       <c r="N81" t="s">
-        <v>125</v>
+        <v>315</v>
       </c>
       <c r="O81" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P81" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q81" t="s">
         <v>42</v>
       </c>
       <c r="R81" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="S81">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="T81" t="s">
-        <v>126</v>
+        <v>316</v>
       </c>
       <c r="U81">
-        <v>726</v>
+        <v>2127</v>
       </c>
       <c r="W81" t="s">
         <v>45</v>
       </c>
       <c r="X81" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="Y81" t="s">
         <v>47</v>
       </c>
       <c r="Z81" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="AA81">
-        <v>0.65228360328698898</v>
+        <v>1.41556777257836</v>
       </c>
       <c r="AB81">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC81">
-        <v>2.5385381636297999</v>
-      </c>
-      <c r="AD81">
-        <v>-1.2097738563481899</v>
-      </c>
-      <c r="AE81">
-        <v>-1.28397130970793E-2</v>
-      </c>
-      <c r="AF81">
-        <v>9.6154282597393902E-3</v>
+        <v>0.82374936030827295</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B82" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="C82" t="s">
-        <v>168</v>
+        <v>234</v>
       </c>
       <c r="D82" t="s">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="F82">
-        <v>749710</v>
+        <v>1290906</v>
       </c>
       <c r="G82" t="s">
         <v>35</v>
@@ -9028,7 +9100,7 @@
         <v>2</v>
       </c>
       <c r="J82">
-        <v>-3.4899515320077898</v>
+        <v>-2.9969431050545698</v>
       </c>
       <c r="K82" t="s">
         <v>37</v>
@@ -9037,10 +9109,10 @@
         <v>74</v>
       </c>
       <c r="M82">
-        <v>84</v>
+        <v>83.2</v>
       </c>
       <c r="N82" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="O82" t="s">
         <v>45</v>
@@ -9055,13 +9127,13 @@
         <v>68</v>
       </c>
       <c r="S82">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="T82" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="U82">
-        <v>1316</v>
+        <v>1552</v>
       </c>
       <c r="W82" t="s">
         <v>45</v>
@@ -9070,57 +9142,57 @@
         <v>70</v>
       </c>
       <c r="Y82" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="Z82" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="AA82">
-        <v>0.90699376953089905</v>
+        <v>1.0329667593199201</v>
       </c>
       <c r="AB82">
         <v>3</v>
       </c>
       <c r="AC82">
-        <v>3.4087118610294298</v>
-      </c>
-      <c r="AD82">
-        <v>-1.2220931443204199</v>
+        <v>0.65992455840237796</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>34</v>
       </c>
       <c r="AE82">
-        <v>-0.15424744684771499</v>
+        <v>4.9969656966961103E-2</v>
       </c>
       <c r="AF82">
-        <v>4.0857058768109702E-2</v>
+        <v>5.1484451766430801E-3</v>
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B83" t="s">
-        <v>117</v>
+        <v>228</v>
       </c>
       <c r="C83" t="s">
-        <v>118</v>
+        <v>229</v>
       </c>
       <c r="D83" t="s">
-        <v>119</v>
-      </c>
-      <c r="F83">
-        <v>749714</v>
+        <v>230</v>
+      </c>
+      <c r="F83" t="s">
+        <v>34</v>
       </c>
       <c r="G83" t="s">
         <v>35</v>
       </c>
       <c r="H83" t="s">
-        <v>36</v>
+        <v>231</v>
       </c>
       <c r="I83">
         <v>2</v>
       </c>
       <c r="J83">
-        <v>-5.0646410036140299</v>
+        <v>-4.5268334501296099</v>
       </c>
       <c r="K83" t="s">
         <v>37</v>
@@ -9129,159 +9201,147 @@
         <v>74</v>
       </c>
       <c r="M83">
-        <v>87.5</v>
+        <v>96.6</v>
       </c>
       <c r="N83" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
       <c r="O83" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P83" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="Q83" t="s">
         <v>42</v>
       </c>
       <c r="R83" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="S83">
-        <v>24</v>
-      </c>
-      <c r="T83" t="s">
-        <v>121</v>
-      </c>
-      <c r="U83">
-        <v>936</v>
+        <v>35</v>
+      </c>
+      <c r="U83" t="s">
+        <v>34</v>
       </c>
       <c r="W83" t="s">
         <v>45</v>
       </c>
       <c r="X83" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="Y83" t="s">
         <v>85</v>
       </c>
       <c r="Z83" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="AA83">
-        <v>0.78692217918861895</v>
+        <v>0.88659671206017499</v>
       </c>
       <c r="AB83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC83">
-        <v>1.7527485914071299</v>
-      </c>
-      <c r="AD83">
-        <v>-1.2934457352642399</v>
+        <v>0.27500704749986998</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>34</v>
       </c>
       <c r="AE83">
-        <v>-9.9094103426491401E-2</v>
+        <v>-0.109676378617635</v>
       </c>
       <c r="AF83">
-        <v>2.7612364858051599E-2</v>
+        <v>2.86668904493745E-2</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B84" t="s">
-        <v>274</v>
+        <v>213</v>
       </c>
       <c r="C84" t="s">
-        <v>275</v>
+        <v>214</v>
       </c>
       <c r="D84" t="s">
-        <v>276</v>
+        <v>215</v>
       </c>
       <c r="F84">
-        <v>910927</v>
+        <v>749715</v>
       </c>
       <c r="G84" t="s">
         <v>35</v>
       </c>
       <c r="H84" t="s">
-        <v>60</v>
-      </c>
-      <c r="I84">
-        <v>3</v>
-      </c>
-      <c r="J84">
-        <v>-4.2174075902224901</v>
-      </c>
-      <c r="K84" t="s">
-        <v>37</v>
-      </c>
-      <c r="L84" t="s">
-        <v>277</v>
-      </c>
-      <c r="M84">
-        <v>56.8</v>
+        <v>36</v>
+      </c>
+      <c r="I84" t="s">
+        <v>34</v>
+      </c>
+      <c r="J84" t="s">
+        <v>34</v>
       </c>
       <c r="N84" t="s">
-        <v>278</v>
+        <v>216</v>
       </c>
       <c r="O84" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P84" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q84" t="s">
         <v>42</v>
       </c>
       <c r="R84" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="S84">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="T84" t="s">
-        <v>279</v>
+        <v>217</v>
       </c>
       <c r="U84">
-        <v>4</v>
+        <v>351</v>
       </c>
       <c r="W84" t="s">
         <v>45</v>
       </c>
       <c r="X84" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y84" t="s">
         <v>85</v>
       </c>
       <c r="Z84" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="AA84">
-        <v>0.99941414687716601</v>
+        <v>0.848441478763718</v>
       </c>
       <c r="AB84">
         <v>2</v>
       </c>
       <c r="AC84">
-        <v>1.9781956296816501</v>
-      </c>
-      <c r="AD84">
-        <v>-1.31328430524538</v>
-      </c>
-      <c r="AE84">
-        <v>-2.16387444364027E-2</v>
-      </c>
-      <c r="AF84">
-        <v>1.03615436720713E-2</v>
+        <v>0.23878685958711601</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE84" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AF84">
+  <autoFilter ref="A1:AF84" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF84">
-      <sortCondition descending="1" ref="AD1:AD84"/>
+      <sortCondition descending="1" ref="AC1:AC84"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
